--- a/BabbleAcoustic/Acoustic_characteristics_dataset_sex.xlsx
+++ b/BabbleAcoustic/Acoustic_characteristics_dataset_sex.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CurrentStudies\BabblepaperOCS\results\ResultsTTL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CurrentStudies\BabblepaperOCS\results\ResultsTTL\acoustic_properties_sex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868DC4C5-9A64-466B-A818-A70480C5B1D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{69991583-7D75-4FDC-9861-BCF9F6DEDC1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9090" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sex" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="11">
   <si>
     <t>--undefined--</t>
   </si>
@@ -43,9 +43,6 @@
     <t>mean_pitch(HZ)</t>
   </si>
   <si>
-    <t>f0-50(HZ)</t>
-  </si>
-  <si>
     <t>f1_midpt(HZ)</t>
   </si>
   <si>
@@ -53,6 +50,9 @@
   </si>
   <si>
     <t>intens_midpt(dB)</t>
+  </si>
+  <si>
+    <t>f0-midpt(HZ)</t>
   </si>
 </sst>
 </file>
@@ -385,7 +385,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -509,6 +509,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -554,7 +565,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -562,6 +573,8 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -920,7 +933,7 @@
   <dimension ref="A1:J203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -947,19 +960,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="J1" s="2"/>
     </row>
@@ -976,16 +989,16 @@
       <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="8">
         <v>287</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="7">
         <v>753.99435843449101</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="7">
         <v>1900.55257617391</v>
       </c>
       <c r="I2" s="1">
@@ -1005,16 +1018,16 @@
       <c r="D3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="7">
         <v>290.40267113854298</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="8">
         <v>278</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="7">
         <v>581.39564280386696</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="7">
         <v>1385.6279070222899</v>
       </c>
       <c r="I3" s="1">
@@ -1034,16 +1047,16 @@
       <c r="D4" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="7">
         <v>205.76876638994</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="8">
         <v>194</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="7">
         <v>818.81545602364497</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="7">
         <v>2085.6264113682701</v>
       </c>
       <c r="I4" s="1">
@@ -1063,16 +1076,16 @@
       <c r="D5" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="7">
         <v>343.55298623689998</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="8">
         <v>330</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="7">
         <v>405.13393343890601</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="7">
         <v>879.64529150303099</v>
       </c>
       <c r="I5" s="1">
@@ -1092,16 +1105,16 @@
       <c r="D6" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="7">
         <v>239.66961743987699</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="8">
         <v>282</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="7">
         <v>368.34875154378398</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="7">
         <v>1386.3259665098201</v>
       </c>
       <c r="I6" s="1">
@@ -1121,16 +1134,16 @@
       <c r="D7" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="7">
         <v>379.358039220531</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="8">
         <v>344</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="7">
         <v>646.85438037782603</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="7">
         <v>749.18597992078696</v>
       </c>
       <c r="I7" s="1">
@@ -1150,16 +1163,16 @@
       <c r="D8" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="7">
         <v>370.95283745258303</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="8">
         <v>345</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="7">
         <v>741.05686745928199</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="7">
         <v>1844.28678868572</v>
       </c>
       <c r="I8" s="1">
@@ -1179,16 +1192,16 @@
       <c r="D9" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="7">
         <v>390.24650811113702</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="8">
         <v>352</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="7">
         <v>435.785552160414</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="7">
         <v>1306.4050542009199</v>
       </c>
       <c r="I9" s="1">
@@ -1208,16 +1221,16 @@
       <c r="D10" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="7">
         <v>235.93795023509401</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="8">
         <v>226</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="7">
         <v>496.95844186988001</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="7">
         <v>1186.06238668731</v>
       </c>
       <c r="I10" s="1">
@@ -1237,16 +1250,16 @@
       <c r="D11" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="7">
         <v>318.07441938403002</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="8">
         <v>313</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="7">
         <v>412.17236181109899</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="7">
         <v>1284.50929224018</v>
       </c>
       <c r="I11" s="1">
@@ -1266,16 +1279,16 @@
       <c r="D12" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="8">
         <v>221</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="7">
         <v>1400.08225012667</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="7">
         <v>2619.0976352828902</v>
       </c>
       <c r="I12" s="1">
@@ -1295,16 +1308,16 @@
       <c r="D13" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="7">
         <v>221.24835050785501</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="8">
         <v>255</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="7">
         <v>977.52772945793402</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="7">
         <v>1697.09640873025</v>
       </c>
       <c r="I13" s="1">
@@ -1324,16 +1337,16 @@
       <c r="D14" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="7">
         <v>370.06642164542598</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="8">
         <v>374</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="7">
         <v>1108.7937293363</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="7">
         <v>1662.80731959028</v>
       </c>
       <c r="I14" s="1">
@@ -1353,16 +1366,16 @@
       <c r="D15" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="7">
         <v>259.737081927627</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="8">
         <v>264</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="7">
         <v>1030.9995262790201</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="7">
         <v>1597.1615990149701</v>
       </c>
       <c r="I15" s="1">
@@ -1382,16 +1395,16 @@
       <c r="D16" t="s">
         <v>1</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="7">
         <v>342.575328373974</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="8">
         <v>284</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="7">
         <v>704.297887663746</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="7">
         <v>1695.0036177361401</v>
       </c>
       <c r="I16" s="1">
@@ -1411,16 +1424,16 @@
       <c r="D17" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="7">
         <v>122.649435050283</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="8">
         <v>170</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="7">
         <v>614.88982138331903</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="7">
         <v>1971.4581158568701</v>
       </c>
       <c r="I17" s="1">
@@ -1440,16 +1453,16 @@
       <c r="D18" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="8">
         <v>282</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="7">
         <v>625.00923472620104</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="7">
         <v>1658.35206806782</v>
       </c>
       <c r="I18" s="1">
@@ -1469,16 +1482,16 @@
       <c r="D19" t="s">
         <v>1</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="7">
         <v>268.24306286079297</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="8">
         <v>256</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="7">
         <v>634.72978709486404</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="7">
         <v>2137.2201580879</v>
       </c>
       <c r="I19" s="1">
@@ -1498,16 +1511,16 @@
       <c r="D20" t="s">
         <v>1</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="7">
         <v>263.52641629518001</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="8">
         <v>260</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="7">
         <v>923.22199130221497</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="7">
         <v>1631.69394461001</v>
       </c>
       <c r="I20" s="1">
@@ -1527,16 +1540,16 @@
       <c r="D21" t="s">
         <v>1</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="7">
         <v>375.96577472296701</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="8">
         <v>342</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="7">
         <v>656.13447896236403</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="7">
         <v>1649.95259126517</v>
       </c>
       <c r="I21" s="1">
@@ -1556,16 +1569,16 @@
       <c r="D22" t="s">
         <v>1</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="7">
         <v>206.82655559684201</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="8">
         <v>209</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="7">
         <v>824.966544508943</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="7">
         <v>1339.13714573487</v>
       </c>
       <c r="I22" s="1">
@@ -1585,16 +1598,16 @@
       <c r="D23" t="s">
         <v>1</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="7">
         <v>211.80371704443701</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="8">
         <v>220</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="7">
         <v>787.930556765451</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="7">
         <v>2134.5110342097801</v>
       </c>
       <c r="I23" s="1">
@@ -1614,16 +1627,16 @@
       <c r="D24" t="s">
         <v>1</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="7">
         <v>376.03673910366098</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="8">
         <v>372</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="7">
         <v>751.62635593657706</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="7">
         <v>2303.5323516426602</v>
       </c>
       <c r="I24" s="1">
@@ -1643,16 +1656,16 @@
       <c r="D25" t="s">
         <v>1</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="7">
         <v>268.261861780586</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="8">
         <v>299</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="7">
         <v>791.061083566094</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25" s="7">
         <v>2286.0767395738999</v>
       </c>
       <c r="I25" s="1">
@@ -1672,16 +1685,16 @@
       <c r="D26" t="s">
         <v>1</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="7">
         <v>311.54887342289902</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="8">
         <v>288</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="7">
         <v>635.74196520636099</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26" s="7">
         <v>1309.3352663360299</v>
       </c>
       <c r="I26" s="1">
@@ -1701,16 +1714,16 @@
       <c r="D27" t="s">
         <v>1</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="7">
         <v>200.517593339613</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="8">
         <v>276</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="7">
         <v>800.46294180724601</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27" s="7">
         <v>1528.1605744332101</v>
       </c>
       <c r="I27" s="1">
@@ -1730,16 +1743,16 @@
       <c r="D28" t="s">
         <v>1</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="7">
         <v>229.94170314044899</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="8">
         <v>231</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="7">
         <v>1161.2065977193799</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H28" s="7">
         <v>1457.8181292678801</v>
       </c>
       <c r="I28" s="1">
@@ -1759,16 +1772,16 @@
       <c r="D29" t="s">
         <v>1</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="7">
         <v>390.73522729259201</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="8">
         <v>300</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="7">
         <v>787.31298164546399</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29" s="7">
         <v>1606.4488177957601</v>
       </c>
       <c r="I29" s="1">
@@ -1788,16 +1801,16 @@
       <c r="D30" t="s">
         <v>1</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="8">
         <v>270</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="7">
         <v>695.97929417028695</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30" s="7">
         <v>1605.6571698032201</v>
       </c>
       <c r="I30" s="1">
@@ -1817,16 +1830,16 @@
       <c r="D31" t="s">
         <v>1</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="7">
         <v>348.94933352477199</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="8">
         <v>326</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="7">
         <v>697.46835537801303</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H31" s="7">
         <v>1289.3916446425601</v>
       </c>
       <c r="I31" s="1">
@@ -1846,16 +1859,16 @@
       <c r="D32" t="s">
         <v>1</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="7">
         <v>306.376398081395</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="8">
         <v>322</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32" s="7">
         <v>614.319704907394</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H32" s="7">
         <v>1225.9034771399299</v>
       </c>
       <c r="I32" s="1">
@@ -1875,16 +1888,16 @@
       <c r="D33" t="s">
         <v>1</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="7">
         <v>141.11008504487199</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="8">
         <v>154</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33" s="7">
         <v>568.81279686930202</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H33" s="7">
         <v>1910.35062851668</v>
       </c>
       <c r="I33" s="1">
@@ -1904,16 +1917,16 @@
       <c r="D34" t="s">
         <v>1</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="7">
         <v>202.89003448984101</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="8">
         <v>279</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34" s="7">
         <v>898.80878963924499</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H34" s="7">
         <v>1339.1340408787701</v>
       </c>
       <c r="I34" s="1">
@@ -1933,16 +1946,16 @@
       <c r="D35" t="s">
         <v>1</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="7">
         <v>227.78306905955901</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="8">
         <v>225</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G35" s="7">
         <v>456.87742725678299</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H35" s="7">
         <v>1804.1248616221001</v>
       </c>
       <c r="I35" s="1">
@@ -1962,16 +1975,16 @@
       <c r="D36" t="s">
         <v>1</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="7">
         <v>358.75234596309201</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36" s="8">
         <v>360</v>
       </c>
-      <c r="G36" s="1">
+      <c r="G36" s="7">
         <v>425.82435210913701</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H36" s="7">
         <v>2475.0539703805698</v>
       </c>
       <c r="I36" s="1">
@@ -1991,16 +2004,16 @@
       <c r="D37" t="s">
         <v>1</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="7">
         <v>269.03260244494101</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37" s="8">
         <v>268</v>
       </c>
-      <c r="G37" s="1">
+      <c r="G37" s="7">
         <v>606.99260572821697</v>
       </c>
-      <c r="H37" s="1">
+      <c r="H37" s="7">
         <v>1759.3825687880501</v>
       </c>
       <c r="I37" s="1">
@@ -2020,16 +2033,16 @@
       <c r="D38" t="s">
         <v>1</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="7">
         <v>197.405815715122</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38" s="8">
         <v>199</v>
       </c>
-      <c r="G38" s="1">
+      <c r="G38" s="7">
         <v>585.332127577459</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H38" s="7">
         <v>1672.70761065487</v>
       </c>
       <c r="I38" s="1">
@@ -2049,16 +2062,16 @@
       <c r="D39" t="s">
         <v>1</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F39" s="8">
         <v>267</v>
       </c>
-      <c r="G39" s="1">
+      <c r="G39" s="7">
         <v>1222.39737368751</v>
       </c>
-      <c r="H39" s="1">
+      <c r="H39" s="7">
         <v>1724.39709832942</v>
       </c>
       <c r="I39" s="1">
@@ -2078,16 +2091,16 @@
       <c r="D40" t="s">
         <v>1</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40" s="7">
         <v>87.214837057359205</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40" s="8">
         <v>87</v>
       </c>
-      <c r="G40" s="1">
+      <c r="G40" s="7">
         <v>819.24445811468001</v>
       </c>
-      <c r="H40" s="1">
+      <c r="H40" s="7">
         <v>2068.9464030474101</v>
       </c>
       <c r="I40" s="1">
@@ -2107,16 +2120,16 @@
       <c r="D41" t="s">
         <v>1</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="7">
         <v>382.97475720919601</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41" s="8">
         <v>376</v>
       </c>
-      <c r="G41" s="1">
+      <c r="G41" s="7">
         <v>766.53403886313095</v>
       </c>
-      <c r="H41" s="1">
+      <c r="H41" s="7">
         <v>1526.84779793193</v>
       </c>
       <c r="I41" s="1">
@@ -2136,16 +2149,16 @@
       <c r="D42" t="s">
         <v>1</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="7">
         <v>240.04128269624499</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42" s="8">
         <v>304</v>
       </c>
-      <c r="G42" s="1">
+      <c r="G42" s="7">
         <v>327.62024621114</v>
       </c>
-      <c r="H42" s="1">
+      <c r="H42" s="7">
         <v>1992.4681862754201</v>
       </c>
       <c r="I42" s="1">
@@ -2165,16 +2178,16 @@
       <c r="D43" t="s">
         <v>1</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" s="7">
         <v>330.73460618804501</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43" s="8">
         <v>282</v>
       </c>
-      <c r="G43" s="1">
+      <c r="G43" s="7">
         <v>1217.71209810398</v>
       </c>
-      <c r="H43" s="1">
+      <c r="H43" s="7">
         <v>1304.3973225192999</v>
       </c>
       <c r="I43" s="1">
@@ -2194,16 +2207,16 @@
       <c r="D44" t="s">
         <v>1</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44" s="7">
         <v>359.66949471305401</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44" s="8">
         <v>361</v>
       </c>
-      <c r="G44" s="1">
+      <c r="G44" s="7">
         <v>733.32047191723098</v>
       </c>
-      <c r="H44" s="1">
+      <c r="H44" s="7">
         <v>2119.6373792946201</v>
       </c>
       <c r="I44" s="1">
@@ -2223,16 +2236,16 @@
       <c r="D45" t="s">
         <v>1</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45" s="7">
         <v>295.58562338834099</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F45" s="8">
         <v>287</v>
       </c>
-      <c r="G45" s="1">
+      <c r="G45" s="7">
         <v>832.52520304355198</v>
       </c>
-      <c r="H45" s="1">
+      <c r="H45" s="7">
         <v>1842.3249207276599</v>
       </c>
       <c r="I45" s="1">
@@ -2252,16 +2265,16 @@
       <c r="D46" t="s">
         <v>1</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46" s="7">
         <v>279.95276922319198</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F46" s="8">
         <v>321</v>
       </c>
-      <c r="G46" s="1">
+      <c r="G46" s="7">
         <v>639.048615884686</v>
       </c>
-      <c r="H46" s="1">
+      <c r="H46" s="7">
         <v>876.36181744687099</v>
       </c>
       <c r="I46" s="1">
@@ -2281,16 +2294,16 @@
       <c r="D47" t="s">
         <v>1</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47" s="7">
         <v>396.48555109455702</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F47" s="8">
         <v>377</v>
       </c>
-      <c r="G47" s="1">
+      <c r="G47" s="7">
         <v>700.92352168583898</v>
       </c>
-      <c r="H47" s="1">
+      <c r="H47" s="7">
         <v>799.38426371439198</v>
       </c>
       <c r="I47" s="1">
@@ -2310,16 +2323,16 @@
       <c r="D48" t="s">
         <v>1</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48" s="7">
         <v>321.462411004035</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F48" s="8">
         <v>333</v>
       </c>
-      <c r="G48" s="1">
+      <c r="G48" s="7">
         <v>937.26516000271795</v>
       </c>
-      <c r="H48" s="1">
+      <c r="H48" s="7">
         <v>1367.2565537681301</v>
       </c>
       <c r="I48" s="1">
@@ -2339,16 +2352,16 @@
       <c r="D49" t="s">
         <v>1</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E49" s="7">
         <v>219.951830966947</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F49" s="8">
         <v>240</v>
       </c>
-      <c r="G49" s="1">
+      <c r="G49" s="7">
         <v>458.53959939655101</v>
       </c>
-      <c r="H49" s="1">
+      <c r="H49" s="7">
         <v>1213.2044050628799</v>
       </c>
       <c r="I49" s="1">
@@ -2368,16 +2381,16 @@
       <c r="D50" t="s">
         <v>1</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E50" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F50" s="8">
         <v>383</v>
       </c>
-      <c r="G50" s="1">
+      <c r="G50" s="7">
         <v>602.84503178092405</v>
       </c>
-      <c r="H50" s="1">
+      <c r="H50" s="7">
         <v>1929.75862221631</v>
       </c>
       <c r="I50" s="1">
@@ -2397,16 +2410,16 @@
       <c r="D51" t="s">
         <v>1</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51" s="7">
         <v>317.32100638024798</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F51" s="8">
         <v>314</v>
       </c>
-      <c r="G51" s="1">
+      <c r="G51" s="7">
         <v>612.32126027734205</v>
       </c>
-      <c r="H51" s="1">
+      <c r="H51" s="7">
         <v>1916.91110196098</v>
       </c>
       <c r="I51" s="1">
@@ -2426,16 +2439,16 @@
       <c r="D52" t="s">
         <v>1</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E52" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F52" s="8">
         <v>216</v>
       </c>
-      <c r="G52" s="1">
+      <c r="G52" s="7">
         <v>620.10160985940399</v>
       </c>
-      <c r="H52" s="1">
+      <c r="H52" s="7">
         <v>1193.29526428394</v>
       </c>
       <c r="I52" s="1">
@@ -2455,16 +2468,16 @@
       <c r="D53" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="E53" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F53" s="4" t="s">
+      <c r="F53" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G53" s="6">
+      <c r="G53" s="7">
         <v>918.80536549961801</v>
       </c>
-      <c r="H53" s="6">
+      <c r="H53" s="7">
         <v>1510.59257298079</v>
       </c>
       <c r="I53" s="6">
@@ -2484,16 +2497,16 @@
       <c r="D54" t="s">
         <v>1</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E54" s="7">
         <v>282.69352193923697</v>
       </c>
-      <c r="F54" s="1">
+      <c r="F54" s="8">
         <v>316</v>
       </c>
-      <c r="G54" s="1">
+      <c r="G54" s="7">
         <v>698.98746693934697</v>
       </c>
-      <c r="H54" s="1">
+      <c r="H54" s="7">
         <v>1170.74490746061</v>
       </c>
       <c r="I54" s="1">
@@ -2513,16 +2526,16 @@
       <c r="D55" t="s">
         <v>1</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E55" s="7">
         <v>286.43260748529701</v>
       </c>
-      <c r="F55" s="1">
+      <c r="F55" s="8">
         <v>225</v>
       </c>
-      <c r="G55" s="1">
+      <c r="G55" s="7">
         <v>518.67224243535304</v>
       </c>
-      <c r="H55" s="1">
+      <c r="H55" s="7">
         <v>1742.73753147363</v>
       </c>
       <c r="I55" s="1">
@@ -2542,16 +2555,16 @@
       <c r="D56" t="s">
         <v>1</v>
       </c>
-      <c r="E56" s="1">
+      <c r="E56" s="7">
         <v>312.123309276653</v>
       </c>
-      <c r="F56" s="1">
+      <c r="F56" s="8">
         <v>327</v>
       </c>
-      <c r="G56" s="1">
+      <c r="G56" s="7">
         <v>434.08267167456302</v>
       </c>
-      <c r="H56" s="1">
+      <c r="H56" s="7">
         <v>1604.3041431343299</v>
       </c>
       <c r="I56" s="1">
@@ -2571,16 +2584,16 @@
       <c r="D57" t="s">
         <v>1</v>
       </c>
-      <c r="E57" s="1">
+      <c r="E57" s="7">
         <v>354.50310600816903</v>
       </c>
-      <c r="F57" s="1">
+      <c r="F57" s="8">
         <v>354</v>
       </c>
-      <c r="G57" s="1">
+      <c r="G57" s="7">
         <v>497.98503909805697</v>
       </c>
-      <c r="H57" s="1">
+      <c r="H57" s="7">
         <v>1482.93699321136</v>
       </c>
       <c r="I57" s="1">
@@ -2600,16 +2613,16 @@
       <c r="D58" t="s">
         <v>1</v>
       </c>
-      <c r="E58" s="1">
+      <c r="E58" s="7">
         <v>192.1194852573</v>
       </c>
-      <c r="F58" s="1">
+      <c r="F58" s="8">
         <v>360</v>
       </c>
-      <c r="G58" s="1">
+      <c r="G58" s="7">
         <v>763.15030673257695</v>
       </c>
-      <c r="H58" s="1">
+      <c r="H58" s="7">
         <v>1542.6932840038501</v>
       </c>
       <c r="I58" s="1">
@@ -2629,16 +2642,16 @@
       <c r="D59" t="s">
         <v>1</v>
       </c>
-      <c r="E59" s="1">
+      <c r="E59" s="7">
         <v>212.59769840753199</v>
       </c>
-      <c r="F59" s="1">
+      <c r="F59" s="8">
         <v>268</v>
       </c>
-      <c r="G59" s="1">
+      <c r="G59" s="7">
         <v>1273.84802713318</v>
       </c>
-      <c r="H59" s="1">
+      <c r="H59" s="7">
         <v>2178.95642150913</v>
       </c>
       <c r="I59" s="1">
@@ -2658,16 +2671,16 @@
       <c r="D60" t="s">
         <v>1</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E60" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F60" s="1">
+      <c r="F60" s="8">
         <v>358</v>
       </c>
-      <c r="G60" s="1">
+      <c r="G60" s="7">
         <v>875.31458344769305</v>
       </c>
-      <c r="H60" s="1">
+      <c r="H60" s="7">
         <v>1937.3939122885399</v>
       </c>
       <c r="I60" s="1">
@@ -2687,16 +2700,16 @@
       <c r="D61" t="s">
         <v>1</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E61" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F61" s="1">
+      <c r="F61" s="8">
         <v>162</v>
       </c>
-      <c r="G61" s="1">
+      <c r="G61" s="7">
         <v>575.20815369856803</v>
       </c>
-      <c r="H61" s="1">
+      <c r="H61" s="7">
         <v>1729.06017423</v>
       </c>
       <c r="I61" s="1">
@@ -2716,16 +2729,16 @@
       <c r="D62" t="s">
         <v>1</v>
       </c>
-      <c r="E62" s="1">
+      <c r="E62" s="7">
         <v>283.40774036072497</v>
       </c>
-      <c r="F62" s="1">
+      <c r="F62" s="8">
         <v>284</v>
       </c>
-      <c r="G62" s="1">
+      <c r="G62" s="7">
         <v>622.15237480340897</v>
       </c>
-      <c r="H62" s="1">
+      <c r="H62" s="7">
         <v>922.50351190132699</v>
       </c>
       <c r="I62" s="1">
@@ -2745,16 +2758,16 @@
       <c r="D63" t="s">
         <v>1</v>
       </c>
-      <c r="E63" s="1">
+      <c r="E63" s="7">
         <v>352.28925884290197</v>
       </c>
-      <c r="F63" s="1">
+      <c r="F63" s="8">
         <v>309</v>
       </c>
-      <c r="G63" s="1">
+      <c r="G63" s="7">
         <v>665.30782168514202</v>
       </c>
-      <c r="H63" s="1">
+      <c r="H63" s="7">
         <v>1624.2185348089099</v>
       </c>
       <c r="I63" s="1">
@@ -2774,16 +2787,16 @@
       <c r="D64" t="s">
         <v>1</v>
       </c>
-      <c r="E64" s="1">
+      <c r="E64" s="7">
         <v>192.67349104797</v>
       </c>
-      <c r="F64" s="1">
+      <c r="F64" s="8">
         <v>173</v>
       </c>
-      <c r="G64" s="1">
+      <c r="G64" s="7">
         <v>640.10830303306602</v>
       </c>
-      <c r="H64" s="1">
+      <c r="H64" s="7">
         <v>1357.9160213396001</v>
       </c>
       <c r="I64" s="1">
@@ -2803,16 +2816,16 @@
       <c r="D65" t="s">
         <v>1</v>
       </c>
-      <c r="E65" s="1">
+      <c r="E65" s="7">
         <v>260.47891678446899</v>
       </c>
-      <c r="F65" s="1">
+      <c r="F65" s="8">
         <v>271</v>
       </c>
-      <c r="G65" s="1">
+      <c r="G65" s="7">
         <v>785.03930160972004</v>
       </c>
-      <c r="H65" s="1">
+      <c r="H65" s="7">
         <v>1551.06890350751</v>
       </c>
       <c r="I65" s="1">
@@ -2832,16 +2845,16 @@
       <c r="D66" t="s">
         <v>1</v>
       </c>
-      <c r="E66" s="1">
+      <c r="E66" s="7">
         <v>201.072804572048</v>
       </c>
-      <c r="F66" s="1">
+      <c r="F66" s="8">
         <v>300</v>
       </c>
-      <c r="G66" s="1">
+      <c r="G66" s="7">
         <v>811.88377403583797</v>
       </c>
-      <c r="H66" s="1">
+      <c r="H66" s="7">
         <v>1908.97389018847</v>
       </c>
       <c r="I66" s="1">
@@ -2861,16 +2874,16 @@
       <c r="D67" t="s">
         <v>1</v>
       </c>
-      <c r="E67" s="1">
+      <c r="E67" s="7">
         <v>185.70447396643101</v>
       </c>
-      <c r="F67" s="1">
+      <c r="F67" s="8">
         <v>210</v>
       </c>
-      <c r="G67" s="1">
+      <c r="G67" s="7">
         <v>505.524763333235</v>
       </c>
-      <c r="H67" s="1">
+      <c r="H67" s="7">
         <v>1797.67802035667</v>
       </c>
       <c r="I67" s="1">
@@ -2890,16 +2903,16 @@
       <c r="D68" t="s">
         <v>1</v>
       </c>
-      <c r="E68" s="1">
+      <c r="E68" s="7">
         <v>375.77263240495398</v>
       </c>
-      <c r="F68" s="1">
+      <c r="F68" s="8">
         <v>375</v>
       </c>
-      <c r="G68" s="1">
+      <c r="G68" s="7">
         <v>835.04653330100905</v>
       </c>
-      <c r="H68" s="1">
+      <c r="H68" s="7">
         <v>1521.99607361636</v>
       </c>
       <c r="I68" s="1">
@@ -2919,16 +2932,16 @@
       <c r="D69" t="s">
         <v>1</v>
       </c>
-      <c r="E69" s="1">
+      <c r="E69" s="7">
         <v>297.652518875022</v>
       </c>
-      <c r="F69" s="1">
+      <c r="F69" s="8">
         <v>298</v>
       </c>
-      <c r="G69" s="1">
+      <c r="G69" s="7">
         <v>647.13263049242005</v>
       </c>
-      <c r="H69" s="1">
+      <c r="H69" s="7">
         <v>1898.23317262246</v>
       </c>
       <c r="I69" s="1">
@@ -2948,16 +2961,16 @@
       <c r="D70" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E70" s="6" t="s">
+      <c r="E70" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F70" s="4" t="s">
+      <c r="F70" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G70" s="6">
+      <c r="G70" s="7">
         <v>1188.94136990127</v>
       </c>
-      <c r="H70" s="6">
+      <c r="H70" s="7">
         <v>2876.9486235009399</v>
       </c>
       <c r="I70" s="6">
@@ -2977,16 +2990,16 @@
       <c r="D71" t="s">
         <v>1</v>
       </c>
-      <c r="E71" s="1">
+      <c r="E71" s="7">
         <v>177.14724599450599</v>
       </c>
-      <c r="F71" s="1">
+      <c r="F71" s="8">
         <v>182</v>
       </c>
-      <c r="G71" s="1">
+      <c r="G71" s="7">
         <v>566.83857891618402</v>
       </c>
-      <c r="H71" s="1">
+      <c r="H71" s="7">
         <v>1203.5475031451199</v>
       </c>
       <c r="I71" s="1">
@@ -3006,16 +3019,16 @@
       <c r="D72" t="s">
         <v>1</v>
       </c>
-      <c r="E72" s="1">
+      <c r="E72" s="7">
         <v>305.619288335764</v>
       </c>
-      <c r="F72" s="1">
+      <c r="F72" s="8">
         <v>308</v>
       </c>
-      <c r="G72" s="1">
+      <c r="G72" s="7">
         <v>575.74463229696698</v>
       </c>
-      <c r="H72" s="1">
+      <c r="H72" s="7">
         <v>2434.27725810113</v>
       </c>
       <c r="I72" s="1">
@@ -3035,16 +3048,16 @@
       <c r="D73" t="s">
         <v>1</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="E73" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F73" s="1">
+      <c r="F73" s="8">
         <v>247</v>
       </c>
-      <c r="G73" s="1">
+      <c r="G73" s="7">
         <v>957.89985328913701</v>
       </c>
-      <c r="H73" s="1">
+      <c r="H73" s="7">
         <v>1266.3087608020101</v>
       </c>
       <c r="I73" s="1">
@@ -3064,16 +3077,16 @@
       <c r="D74" t="s">
         <v>1</v>
       </c>
-      <c r="E74" s="1">
+      <c r="E74" s="7">
         <v>389.56814232336001</v>
       </c>
-      <c r="F74" s="1">
+      <c r="F74" s="8">
         <v>334</v>
       </c>
-      <c r="G74" s="1">
+      <c r="G74" s="7">
         <v>779.00401790708895</v>
       </c>
-      <c r="H74" s="1">
+      <c r="H74" s="7">
         <v>2074.3149898506799</v>
       </c>
       <c r="I74" s="1">
@@ -3093,16 +3106,16 @@
       <c r="D75" t="s">
         <v>1</v>
       </c>
-      <c r="E75" s="1">
+      <c r="E75" s="7">
         <v>324.24106357855999</v>
       </c>
-      <c r="F75" s="1">
+      <c r="F75" s="8">
         <v>333</v>
       </c>
-      <c r="G75" s="1">
+      <c r="G75" s="7">
         <v>873.04859743600105</v>
       </c>
-      <c r="H75" s="1">
+      <c r="H75" s="7">
         <v>1302.0120304444499</v>
       </c>
       <c r="I75" s="1">
@@ -3122,16 +3135,16 @@
       <c r="D76" t="s">
         <v>1</v>
       </c>
-      <c r="E76" s="1">
+      <c r="E76" s="7">
         <v>294.08415794923201</v>
       </c>
-      <c r="F76" s="1">
+      <c r="F76" s="8">
         <v>290</v>
       </c>
-      <c r="G76" s="1">
+      <c r="G76" s="7">
         <v>584.14872695362601</v>
       </c>
-      <c r="H76" s="1">
+      <c r="H76" s="7">
         <v>1776.2924713418099</v>
       </c>
       <c r="I76" s="1">
@@ -3151,16 +3164,16 @@
       <c r="D77" t="s">
         <v>1</v>
       </c>
-      <c r="E77" s="1">
+      <c r="E77" s="7">
         <v>378.51731632187</v>
       </c>
-      <c r="F77" s="1">
+      <c r="F77" s="8">
         <v>344</v>
       </c>
-      <c r="G77" s="1">
+      <c r="G77" s="7">
         <v>426.01862924556099</v>
       </c>
-      <c r="H77" s="1">
+      <c r="H77" s="7">
         <v>1807.3771186624399</v>
       </c>
       <c r="I77" s="1">
@@ -3180,16 +3193,16 @@
       <c r="D78" t="s">
         <v>1</v>
       </c>
-      <c r="E78" s="1">
+      <c r="E78" s="7">
         <v>232.403890519329</v>
       </c>
-      <c r="F78" s="1">
+      <c r="F78" s="8">
         <v>249</v>
       </c>
-      <c r="G78" s="1">
+      <c r="G78" s="7">
         <v>976.16936702374198</v>
       </c>
-      <c r="H78" s="1">
+      <c r="H78" s="7">
         <v>1405.7594021862801</v>
       </c>
       <c r="I78" s="1">
@@ -3209,16 +3222,16 @@
       <c r="D79" t="s">
         <v>1</v>
       </c>
-      <c r="E79" s="1">
+      <c r="E79" s="7">
         <v>248.04715497819501</v>
       </c>
-      <c r="F79" s="1">
+      <c r="F79" s="8">
         <v>247</v>
       </c>
-      <c r="G79" s="1">
+      <c r="G79" s="7">
         <v>710.35701574217001</v>
       </c>
-      <c r="H79" s="1">
+      <c r="H79" s="7">
         <v>1162.7416933987399</v>
       </c>
       <c r="I79" s="1">
@@ -3238,16 +3251,16 @@
       <c r="D80" t="s">
         <v>1</v>
       </c>
-      <c r="E80" s="1">
+      <c r="E80" s="7">
         <v>205.357086182259</v>
       </c>
-      <c r="F80" s="1">
+      <c r="F80" s="8">
         <v>212</v>
       </c>
-      <c r="G80" s="1">
+      <c r="G80" s="7">
         <v>619.82596706598599</v>
       </c>
-      <c r="H80" s="1">
+      <c r="H80" s="7">
         <v>2080.2435240618001</v>
       </c>
       <c r="I80" s="1">
@@ -3267,16 +3280,16 @@
       <c r="D81" t="s">
         <v>1</v>
       </c>
-      <c r="E81" s="1">
+      <c r="E81" s="7">
         <v>241.73306095255899</v>
       </c>
-      <c r="F81" s="1">
+      <c r="F81" s="8">
         <v>217</v>
       </c>
-      <c r="G81" s="1">
+      <c r="G81" s="7">
         <v>559.15056712680905</v>
       </c>
-      <c r="H81" s="1">
+      <c r="H81" s="7">
         <v>1143.6618387173</v>
       </c>
       <c r="I81" s="1">
@@ -3296,16 +3309,16 @@
       <c r="D82" t="s">
         <v>1</v>
       </c>
-      <c r="E82" s="1">
+      <c r="E82" s="7">
         <v>337.93504323956398</v>
       </c>
-      <c r="F82" s="1">
+      <c r="F82" s="8">
         <v>318</v>
       </c>
-      <c r="G82" s="1">
+      <c r="G82" s="7">
         <v>674.70749362306196</v>
       </c>
-      <c r="H82" s="1">
+      <c r="H82" s="7">
         <v>1661.4709012228</v>
       </c>
       <c r="I82" s="1">
@@ -3325,16 +3338,16 @@
       <c r="D83" t="s">
         <v>1</v>
       </c>
-      <c r="E83" s="1">
+      <c r="E83" s="7">
         <v>309.61625338299302</v>
       </c>
-      <c r="F83" s="1">
+      <c r="F83" s="8">
         <v>292</v>
       </c>
-      <c r="G83" s="1">
+      <c r="G83" s="7">
         <v>612.86621260863103</v>
       </c>
-      <c r="H83" s="1">
+      <c r="H83" s="7">
         <v>1388.1729842657901</v>
       </c>
       <c r="I83" s="1">
@@ -3354,16 +3367,16 @@
       <c r="D84" t="s">
         <v>1</v>
       </c>
-      <c r="E84" s="1">
+      <c r="E84" s="7">
         <v>217.05745375750701</v>
       </c>
-      <c r="F84" s="1">
+      <c r="F84" s="8">
         <v>303</v>
       </c>
-      <c r="G84" s="1">
+      <c r="G84" s="7">
         <v>868.44734966247302</v>
       </c>
-      <c r="H84" s="1">
+      <c r="H84" s="7">
         <v>1557.73202229615</v>
       </c>
       <c r="I84" s="1">
@@ -3383,16 +3396,16 @@
       <c r="D85" t="s">
         <v>1</v>
       </c>
-      <c r="E85" s="1">
+      <c r="E85" s="7">
         <v>315.799094598284</v>
       </c>
-      <c r="F85" s="1">
+      <c r="F85" s="8">
         <v>296</v>
       </c>
-      <c r="G85" s="1">
+      <c r="G85" s="7">
         <v>944.26865391766103</v>
       </c>
-      <c r="H85" s="1">
+      <c r="H85" s="7">
         <v>1438.4137550032301</v>
       </c>
       <c r="I85" s="1">
@@ -3412,16 +3425,16 @@
       <c r="D86" t="s">
         <v>1</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="E86" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F86" s="1">
+      <c r="F86" s="8">
         <v>228</v>
       </c>
-      <c r="G86" s="1">
+      <c r="G86" s="7">
         <v>636.98567170156298</v>
       </c>
-      <c r="H86" s="1">
+      <c r="H86" s="7">
         <v>1783.7317333333201</v>
       </c>
       <c r="I86" s="1">
@@ -3441,16 +3454,16 @@
       <c r="D87" t="s">
         <v>1</v>
       </c>
-      <c r="E87" s="1">
+      <c r="E87" s="7">
         <v>198.12642958625199</v>
       </c>
-      <c r="F87" s="1">
+      <c r="F87" s="8">
         <v>199</v>
       </c>
-      <c r="G87" s="1">
+      <c r="G87" s="7">
         <v>970.38177178398701</v>
       </c>
-      <c r="H87" s="1">
+      <c r="H87" s="7">
         <v>1495.56495259344</v>
       </c>
       <c r="I87" s="1">
@@ -3470,16 +3483,16 @@
       <c r="D88" t="s">
         <v>1</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="E88" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F88" s="1">
+      <c r="F88" s="8">
         <v>191</v>
       </c>
-      <c r="G88" s="1">
+      <c r="G88" s="7">
         <v>856.02287217154696</v>
       </c>
-      <c r="H88" s="1">
+      <c r="H88" s="7">
         <v>1952.9875417972</v>
       </c>
       <c r="I88" s="1">
@@ -3499,16 +3512,16 @@
       <c r="D89" t="s">
         <v>1</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="E89" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F89" s="1">
+      <c r="F89" s="8">
         <v>230</v>
       </c>
-      <c r="G89" s="1">
+      <c r="G89" s="7">
         <v>966.43221328777304</v>
       </c>
-      <c r="H89" s="1">
+      <c r="H89" s="7">
         <v>2204.9819407208602</v>
       </c>
       <c r="I89" s="1">
@@ -3528,16 +3541,16 @@
       <c r="D90" t="s">
         <v>1</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="E90" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F90" s="1">
+      <c r="F90" s="8">
         <v>273</v>
       </c>
-      <c r="G90" s="1">
+      <c r="G90" s="7">
         <v>481.22944363120502</v>
       </c>
-      <c r="H90" s="1">
+      <c r="H90" s="7">
         <v>1514.8237428141799</v>
       </c>
       <c r="I90" s="1">
@@ -3557,16 +3570,16 @@
       <c r="D91" t="s">
         <v>1</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="E91" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F91" s="1">
+      <c r="F91" s="8">
         <v>235</v>
       </c>
-      <c r="G91" s="1">
+      <c r="G91" s="7">
         <v>880.94959617363997</v>
       </c>
-      <c r="H91" s="1">
+      <c r="H91" s="7">
         <v>1864.3943736266001</v>
       </c>
       <c r="I91" s="1">
@@ -3586,16 +3599,16 @@
       <c r="D92" t="s">
         <v>1</v>
       </c>
-      <c r="E92" s="1">
+      <c r="E92" s="7">
         <v>240.810791047848</v>
       </c>
-      <c r="F92" s="1">
+      <c r="F92" s="8">
         <v>261</v>
       </c>
-      <c r="G92" s="1">
+      <c r="G92" s="7">
         <v>505.51506720164798</v>
       </c>
-      <c r="H92" s="1">
+      <c r="H92" s="7">
         <v>1358.78274624135</v>
       </c>
       <c r="I92" s="1">
@@ -3615,16 +3628,16 @@
       <c r="D93" t="s">
         <v>1</v>
       </c>
-      <c r="E93" s="1">
+      <c r="E93" s="7">
         <v>105.025791710449</v>
       </c>
-      <c r="F93" s="1">
+      <c r="F93" s="8">
         <v>202</v>
       </c>
-      <c r="G93" s="1">
+      <c r="G93" s="7">
         <v>519.03576328046904</v>
       </c>
-      <c r="H93" s="1">
+      <c r="H93" s="7">
         <v>1670.64318046016</v>
       </c>
       <c r="I93" s="1">
@@ -3644,16 +3657,16 @@
       <c r="D94" t="s">
         <v>1</v>
       </c>
-      <c r="E94" s="1">
+      <c r="E94" s="7">
         <v>308.03294303091798</v>
       </c>
-      <c r="F94" s="1">
+      <c r="F94" s="8">
         <v>251</v>
       </c>
-      <c r="G94" s="1">
+      <c r="G94" s="7">
         <v>466.02202628228201</v>
       </c>
-      <c r="H94" s="1">
+      <c r="H94" s="7">
         <v>1283.2475385304599</v>
       </c>
       <c r="I94" s="1">
@@ -3673,16 +3686,16 @@
       <c r="D95" t="s">
         <v>1</v>
       </c>
-      <c r="E95" s="1">
+      <c r="E95" s="7">
         <v>310.61341244309699</v>
       </c>
-      <c r="F95" s="1">
+      <c r="F95" s="8">
         <v>329</v>
       </c>
-      <c r="G95" s="1">
+      <c r="G95" s="7">
         <v>927.93528968327996</v>
       </c>
-      <c r="H95" s="1">
+      <c r="H95" s="7">
         <v>1426.7312612574599</v>
       </c>
       <c r="I95" s="1">
@@ -3702,16 +3715,16 @@
       <c r="D96" t="s">
         <v>1</v>
       </c>
-      <c r="E96" s="1">
+      <c r="E96" s="7">
         <v>277.011257181492</v>
       </c>
-      <c r="F96" s="1">
+      <c r="F96" s="8">
         <v>282</v>
       </c>
-      <c r="G96" s="1">
+      <c r="G96" s="7">
         <v>556.34550135109896</v>
       </c>
-      <c r="H96" s="1">
+      <c r="H96" s="7">
         <v>1662.2913840035001</v>
       </c>
       <c r="I96" s="1">
@@ -3731,16 +3744,16 @@
       <c r="D97" t="s">
         <v>1</v>
       </c>
-      <c r="E97" s="1">
+      <c r="E97" s="7">
         <v>351.67268308003099</v>
       </c>
-      <c r="F97" s="1">
+      <c r="F97" s="8">
         <v>346</v>
       </c>
-      <c r="G97" s="1">
+      <c r="G97" s="7">
         <v>704.03861827833998</v>
       </c>
-      <c r="H97" s="1">
+      <c r="H97" s="7">
         <v>2159.5221782539102</v>
       </c>
       <c r="I97" s="1">
@@ -3760,16 +3773,16 @@
       <c r="D98" t="s">
         <v>1</v>
       </c>
-      <c r="E98" s="1">
+      <c r="E98" s="7">
         <v>273.85816474268501</v>
       </c>
-      <c r="F98" s="1">
+      <c r="F98" s="8">
         <v>284</v>
       </c>
-      <c r="G98" s="1">
+      <c r="G98" s="7">
         <v>572.42524492338202</v>
       </c>
-      <c r="H98" s="1">
+      <c r="H98" s="7">
         <v>1553.0715067522599</v>
       </c>
       <c r="I98" s="1">
@@ -3789,16 +3802,16 @@
       <c r="D99" t="s">
         <v>1</v>
       </c>
-      <c r="E99" s="1">
+      <c r="E99" s="7">
         <v>366.33421676014501</v>
       </c>
-      <c r="F99" s="1">
+      <c r="F99" s="8">
         <v>369</v>
       </c>
-      <c r="G99" s="1">
+      <c r="G99" s="7">
         <v>724.34872643906999</v>
       </c>
-      <c r="H99" s="1">
+      <c r="H99" s="7">
         <v>1794.3337846213001</v>
       </c>
       <c r="I99" s="1">
@@ -3818,16 +3831,16 @@
       <c r="D100" t="s">
         <v>1</v>
       </c>
-      <c r="E100" s="1">
+      <c r="E100" s="7">
         <v>329.56170910359799</v>
       </c>
-      <c r="F100" s="1">
+      <c r="F100" s="8">
         <v>306</v>
       </c>
-      <c r="G100" s="1">
+      <c r="G100" s="7">
         <v>1001.37665045607</v>
       </c>
-      <c r="H100" s="1">
+      <c r="H100" s="7">
         <v>1976.24100419359</v>
       </c>
       <c r="I100" s="1">
@@ -3847,16 +3860,16 @@
       <c r="D101" t="s">
         <v>1</v>
       </c>
-      <c r="E101" s="1">
+      <c r="E101" s="7">
         <v>198.030990543249</v>
       </c>
-      <c r="F101" s="1">
+      <c r="F101" s="8">
         <v>248</v>
       </c>
-      <c r="G101" s="1">
+      <c r="G101" s="7">
         <v>444.24248792868599</v>
       </c>
-      <c r="H101" s="1">
+      <c r="H101" s="7">
         <v>1131.5470933915101</v>
       </c>
       <c r="I101" s="1">
@@ -3876,16 +3889,16 @@
       <c r="D102" t="s">
         <v>1</v>
       </c>
-      <c r="E102" s="1">
+      <c r="E102" s="7">
         <v>396.17765984494599</v>
       </c>
-      <c r="F102" s="1">
+      <c r="F102" s="8">
         <v>304</v>
       </c>
-      <c r="G102" s="1">
+      <c r="G102" s="7">
         <v>1103.1171628997599</v>
       </c>
-      <c r="H102" s="1">
+      <c r="H102" s="7">
         <v>1586.35084352488</v>
       </c>
       <c r="I102" s="1">
@@ -3905,16 +3918,16 @@
       <c r="D103" t="s">
         <v>1</v>
       </c>
-      <c r="E103" s="1">
+      <c r="E103" s="7">
         <v>370.31965191030997</v>
       </c>
-      <c r="F103" s="1">
+      <c r="F103" s="8">
         <v>301</v>
       </c>
-      <c r="G103" s="1">
+      <c r="G103" s="7">
         <v>675.55339491138795</v>
       </c>
-      <c r="H103" s="1">
+      <c r="H103" s="7">
         <v>1559.0505933425</v>
       </c>
       <c r="I103" s="1">
@@ -3934,16 +3947,16 @@
       <c r="D104" t="s">
         <v>1</v>
       </c>
-      <c r="E104" s="1">
+      <c r="E104" s="7">
         <v>323.044750188862</v>
       </c>
-      <c r="F104" s="1">
+      <c r="F104" s="8">
         <v>359</v>
       </c>
-      <c r="G104" s="1">
+      <c r="G104" s="7">
         <v>668.68248504991197</v>
       </c>
-      <c r="H104" s="1">
+      <c r="H104" s="7">
         <v>1978.56599931803</v>
       </c>
       <c r="I104" s="1">
@@ -3963,16 +3976,16 @@
       <c r="D105" t="s">
         <v>1</v>
       </c>
-      <c r="E105" s="1">
+      <c r="E105" s="7">
         <v>233.62438846292699</v>
       </c>
-      <c r="F105" s="1">
+      <c r="F105" s="8">
         <v>246</v>
       </c>
-      <c r="G105" s="1">
+      <c r="G105" s="7">
         <v>592.06706786305199</v>
       </c>
-      <c r="H105" s="1">
+      <c r="H105" s="7">
         <v>932.26678518007998</v>
       </c>
       <c r="I105" s="1">
@@ -3992,16 +4005,16 @@
       <c r="D106" t="s">
         <v>1</v>
       </c>
-      <c r="E106" s="1" t="s">
+      <c r="E106" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F106" s="1">
+      <c r="F106" s="8">
         <v>277</v>
       </c>
-      <c r="G106" s="1">
+      <c r="G106" s="7">
         <v>1193.2284125327001</v>
       </c>
-      <c r="H106" s="1">
+      <c r="H106" s="7">
         <v>2627.9043111710698</v>
       </c>
       <c r="I106" s="1">
@@ -4021,16 +4034,16 @@
       <c r="D107" t="s">
         <v>1</v>
       </c>
-      <c r="E107" s="1">
+      <c r="E107" s="7">
         <v>339.28438013503302</v>
       </c>
-      <c r="F107" s="1">
+      <c r="F107" s="8">
         <v>252</v>
       </c>
-      <c r="G107" s="1">
+      <c r="G107" s="7">
         <v>984.94109481528096</v>
       </c>
-      <c r="H107" s="1">
+      <c r="H107" s="7">
         <v>1341.10549346025</v>
       </c>
       <c r="I107" s="1">
@@ -4050,16 +4063,16 @@
       <c r="D108" t="s">
         <v>1</v>
       </c>
-      <c r="E108" s="1">
+      <c r="E108" s="7">
         <v>307.30014684534098</v>
       </c>
-      <c r="F108" s="1">
+      <c r="F108" s="8">
         <v>316</v>
       </c>
-      <c r="G108" s="1">
+      <c r="G108" s="7">
         <v>673.21461272056001</v>
       </c>
-      <c r="H108" s="1">
+      <c r="H108" s="7">
         <v>1246.7199966507401</v>
       </c>
       <c r="I108" s="1">
@@ -4079,16 +4092,16 @@
       <c r="D109" t="s">
         <v>1</v>
       </c>
-      <c r="E109" s="1">
+      <c r="E109" s="7">
         <v>300.52489235914697</v>
       </c>
-      <c r="F109" s="1">
+      <c r="F109" s="8">
         <v>296</v>
       </c>
-      <c r="G109" s="1">
+      <c r="G109" s="7">
         <v>1440.4999871478201</v>
       </c>
-      <c r="H109" s="1">
+      <c r="H109" s="7">
         <v>2151.5847118574702</v>
       </c>
       <c r="I109" s="1">
@@ -4108,16 +4121,16 @@
       <c r="D110" t="s">
         <v>1</v>
       </c>
-      <c r="E110" s="1">
+      <c r="E110" s="7">
         <v>209.06560170108301</v>
       </c>
-      <c r="F110" s="1">
+      <c r="F110" s="8">
         <v>208</v>
       </c>
-      <c r="G110" s="1">
+      <c r="G110" s="7">
         <v>808.39161850006201</v>
       </c>
-      <c r="H110" s="1">
+      <c r="H110" s="7">
         <v>2130.9018528240299</v>
       </c>
       <c r="I110" s="1">
@@ -4137,16 +4150,16 @@
       <c r="D111" t="s">
         <v>1</v>
       </c>
-      <c r="E111" s="1">
+      <c r="E111" s="7">
         <v>323.32594501338701</v>
       </c>
-      <c r="F111" s="1">
+      <c r="F111" s="8">
         <v>267</v>
       </c>
-      <c r="G111" s="1">
+      <c r="G111" s="7">
         <v>671.06761653386695</v>
       </c>
-      <c r="H111" s="1">
+      <c r="H111" s="7">
         <v>1365.3918412963501</v>
       </c>
       <c r="I111" s="1">
@@ -4166,16 +4179,16 @@
       <c r="D112" t="s">
         <v>1</v>
       </c>
-      <c r="E112" s="1" t="s">
+      <c r="E112" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F112" s="1">
+      <c r="F112" s="8">
         <v>250</v>
       </c>
-      <c r="G112" s="1">
+      <c r="G112" s="7">
         <v>675.56525333076502</v>
       </c>
-      <c r="H112" s="1">
+      <c r="H112" s="7">
         <v>1945.72653629448</v>
       </c>
       <c r="I112" s="1">
@@ -4195,16 +4208,16 @@
       <c r="D113" t="s">
         <v>1</v>
       </c>
-      <c r="E113" s="1">
+      <c r="E113" s="7">
         <v>302.136624786597</v>
       </c>
-      <c r="F113" s="1">
+      <c r="F113" s="8">
         <v>352</v>
       </c>
-      <c r="G113" s="1">
+      <c r="G113" s="7">
         <v>1167.8731164747201</v>
       </c>
-      <c r="H113" s="1">
+      <c r="H113" s="7">
         <v>1560.8242748417199</v>
       </c>
       <c r="I113" s="1">
@@ -4224,16 +4237,16 @@
       <c r="D114" t="s">
         <v>1</v>
       </c>
-      <c r="E114" s="1">
+      <c r="E114" s="7">
         <v>393.75593034181998</v>
       </c>
-      <c r="F114" s="1">
+      <c r="F114" s="8">
         <v>357</v>
       </c>
-      <c r="G114" s="1">
+      <c r="G114" s="7">
         <v>455.577341143034</v>
       </c>
-      <c r="H114" s="1">
+      <c r="H114" s="7">
         <v>851.76354988570199</v>
       </c>
       <c r="I114" s="1">
@@ -4253,16 +4266,16 @@
       <c r="D115" t="s">
         <v>1</v>
       </c>
-      <c r="E115" s="1">
+      <c r="E115" s="7">
         <v>241.10558381645399</v>
       </c>
-      <c r="F115" s="1">
+      <c r="F115" s="8">
         <v>231</v>
       </c>
-      <c r="G115" s="1">
+      <c r="G115" s="7">
         <v>496.059314475652</v>
       </c>
-      <c r="H115" s="1">
+      <c r="H115" s="7">
         <v>1090.6292754323299</v>
       </c>
       <c r="I115" s="1">
@@ -4282,16 +4295,16 @@
       <c r="D116" t="s">
         <v>1</v>
       </c>
-      <c r="E116" s="1">
+      <c r="E116" s="7">
         <v>251.741288881716</v>
       </c>
-      <c r="F116" s="1">
+      <c r="F116" s="8">
         <v>272</v>
       </c>
-      <c r="G116" s="1">
+      <c r="G116" s="7">
         <v>516.01036936361402</v>
       </c>
-      <c r="H116" s="1">
+      <c r="H116" s="7">
         <v>1568.18649445239</v>
       </c>
       <c r="I116" s="1">
@@ -4311,16 +4324,16 @@
       <c r="D117" t="s">
         <v>1</v>
       </c>
-      <c r="E117" s="1">
+      <c r="E117" s="7">
         <v>220.174246765649</v>
       </c>
-      <c r="F117" s="1">
+      <c r="F117" s="8">
         <v>228</v>
       </c>
-      <c r="G117" s="1">
+      <c r="G117" s="7">
         <v>506.17705258127302</v>
       </c>
-      <c r="H117" s="1">
+      <c r="H117" s="7">
         <v>1277.9722476310101</v>
       </c>
       <c r="I117" s="1">
@@ -4340,16 +4353,16 @@
       <c r="D118" t="s">
         <v>1</v>
       </c>
-      <c r="E118" s="1">
+      <c r="E118" s="7">
         <v>304.94662367745298</v>
       </c>
-      <c r="F118" s="1">
+      <c r="F118" s="8">
         <v>271</v>
       </c>
-      <c r="G118" s="1">
+      <c r="G118" s="7">
         <v>913.54279020715796</v>
       </c>
-      <c r="H118" s="1">
+      <c r="H118" s="7">
         <v>1750.68911175575</v>
       </c>
       <c r="I118" s="1">
@@ -4369,16 +4382,16 @@
       <c r="D119" t="s">
         <v>1</v>
       </c>
-      <c r="E119" s="1">
+      <c r="E119" s="7">
         <v>235.031460383564</v>
       </c>
-      <c r="F119" s="1">
+      <c r="F119" s="8">
         <v>256</v>
       </c>
-      <c r="G119" s="1">
+      <c r="G119" s="7">
         <v>694.60286174600003</v>
       </c>
-      <c r="H119" s="1">
+      <c r="H119" s="7">
         <v>1042.0213214646401</v>
       </c>
       <c r="I119" s="1">
@@ -4398,16 +4411,16 @@
       <c r="D120" t="s">
         <v>1</v>
       </c>
-      <c r="E120" s="1">
+      <c r="E120" s="7">
         <v>364.79053053821002</v>
       </c>
-      <c r="F120" s="1">
+      <c r="F120" s="8">
         <v>336</v>
       </c>
-      <c r="G120" s="1">
+      <c r="G120" s="7">
         <v>700.582598537845</v>
       </c>
-      <c r="H120" s="1">
+      <c r="H120" s="7">
         <v>1594.32271146986</v>
       </c>
       <c r="I120" s="1">
@@ -4427,16 +4440,16 @@
       <c r="D121" t="s">
         <v>1</v>
       </c>
-      <c r="E121" s="1">
+      <c r="E121" s="7">
         <v>313.54883407434602</v>
       </c>
-      <c r="F121" s="1">
+      <c r="F121" s="8">
         <v>323</v>
       </c>
-      <c r="G121" s="1">
+      <c r="G121" s="7">
         <v>573.18201874405497</v>
       </c>
-      <c r="H121" s="1">
+      <c r="H121" s="7">
         <v>942.15306364415505</v>
       </c>
       <c r="I121" s="1">
@@ -4456,16 +4469,16 @@
       <c r="D122" t="s">
         <v>1</v>
       </c>
-      <c r="E122" s="1">
+      <c r="E122" s="7">
         <v>209.11275091093401</v>
       </c>
-      <c r="F122" s="1">
+      <c r="F122" s="8">
         <v>238</v>
       </c>
-      <c r="G122" s="1">
+      <c r="G122" s="7">
         <v>732.12765139961505</v>
       </c>
-      <c r="H122" s="1">
+      <c r="H122" s="7">
         <v>2127.3146292403899</v>
       </c>
       <c r="I122" s="1">
@@ -4485,16 +4498,16 @@
       <c r="D123" t="s">
         <v>1</v>
       </c>
-      <c r="E123" s="1">
+      <c r="E123" s="7">
         <v>286.38565616514501</v>
       </c>
-      <c r="F123" s="1">
+      <c r="F123" s="8">
         <v>302</v>
       </c>
-      <c r="G123" s="1">
+      <c r="G123" s="7">
         <v>550.42716553738398</v>
       </c>
-      <c r="H123" s="1">
+      <c r="H123" s="7">
         <v>1899.6530662585801</v>
       </c>
       <c r="I123" s="1">
@@ -4514,16 +4527,16 @@
       <c r="D124" t="s">
         <v>1</v>
       </c>
-      <c r="E124" s="1" t="s">
+      <c r="E124" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F124" s="1">
+      <c r="F124" s="8">
         <v>244</v>
       </c>
-      <c r="G124" s="1">
+      <c r="G124" s="7">
         <v>280.825164917189</v>
       </c>
-      <c r="H124" s="1">
+      <c r="H124" s="7">
         <v>949.89360140003998</v>
       </c>
       <c r="I124" s="1">
@@ -4543,16 +4556,16 @@
       <c r="D125" t="s">
         <v>1</v>
       </c>
-      <c r="E125" s="1">
+      <c r="E125" s="7">
         <v>370.97544957108499</v>
       </c>
-      <c r="F125" s="1">
+      <c r="F125" s="8">
         <v>263</v>
       </c>
-      <c r="G125" s="1">
+      <c r="G125" s="7">
         <v>1116.368768044</v>
       </c>
-      <c r="H125" s="1">
+      <c r="H125" s="7">
         <v>1548.22550692456</v>
       </c>
       <c r="I125" s="1">
@@ -4572,16 +4585,16 @@
       <c r="D126" t="s">
         <v>1</v>
       </c>
-      <c r="E126" s="1">
+      <c r="E126" s="7">
         <v>199.87833144043401</v>
       </c>
-      <c r="F126" s="1">
+      <c r="F126" s="8">
         <v>198</v>
       </c>
-      <c r="G126" s="1">
+      <c r="G126" s="7">
         <v>787.019710917814</v>
       </c>
-      <c r="H126" s="1">
+      <c r="H126" s="7">
         <v>2305.20767542575</v>
       </c>
       <c r="I126" s="1">
@@ -4601,16 +4614,16 @@
       <c r="D127" t="s">
         <v>1</v>
       </c>
-      <c r="E127" s="1">
+      <c r="E127" s="7">
         <v>220.42389430119201</v>
       </c>
-      <c r="F127" s="1">
+      <c r="F127" s="8">
         <v>238</v>
       </c>
-      <c r="G127" s="1">
+      <c r="G127" s="7">
         <v>727.52461422574902</v>
       </c>
-      <c r="H127" s="1">
+      <c r="H127" s="7">
         <v>1715.73456439546</v>
       </c>
       <c r="I127" s="1">
@@ -4630,16 +4643,16 @@
       <c r="D128" t="s">
         <v>1</v>
       </c>
-      <c r="E128" s="1">
+      <c r="E128" s="7">
         <v>356.42253118150199</v>
       </c>
-      <c r="F128" s="1">
+      <c r="F128" s="8">
         <v>339</v>
       </c>
-      <c r="G128" s="1">
+      <c r="G128" s="7">
         <v>1067.2502300101</v>
       </c>
-      <c r="H128" s="1">
+      <c r="H128" s="7">
         <v>2147.04759663599</v>
       </c>
       <c r="I128" s="1">
@@ -4659,16 +4672,16 @@
       <c r="D129" t="s">
         <v>1</v>
       </c>
-      <c r="E129" s="1">
+      <c r="E129" s="7">
         <v>216.563812575784</v>
       </c>
-      <c r="F129" s="1">
+      <c r="F129" s="8">
         <v>220</v>
       </c>
-      <c r="G129" s="1">
+      <c r="G129" s="7">
         <v>1203.6823178786699</v>
       </c>
-      <c r="H129" s="1">
+      <c r="H129" s="7">
         <v>1754.3420624527901</v>
       </c>
       <c r="I129" s="1">
@@ -4688,16 +4701,16 @@
       <c r="D130" t="s">
         <v>1</v>
       </c>
-      <c r="E130" s="1">
+      <c r="E130" s="7">
         <v>234.04079553247601</v>
       </c>
-      <c r="F130" s="1">
+      <c r="F130" s="8">
         <v>258</v>
       </c>
-      <c r="G130" s="1">
+      <c r="G130" s="7">
         <v>930.51625706637003</v>
       </c>
-      <c r="H130" s="1">
+      <c r="H130" s="7">
         <v>1780.6873902831901</v>
       </c>
       <c r="I130" s="1">
@@ -4717,16 +4730,16 @@
       <c r="D131" t="s">
         <v>1</v>
       </c>
-      <c r="E131" s="1">
+      <c r="E131" s="7">
         <v>297.59964047403099</v>
       </c>
-      <c r="F131" s="1">
+      <c r="F131" s="8">
         <v>291</v>
       </c>
-      <c r="G131" s="1">
+      <c r="G131" s="7">
         <v>568.60777511662502</v>
       </c>
-      <c r="H131" s="1">
+      <c r="H131" s="7">
         <v>1275.60040885184</v>
       </c>
       <c r="I131" s="1">
@@ -4746,16 +4759,16 @@
       <c r="D132" t="s">
         <v>1</v>
       </c>
-      <c r="E132" s="1">
+      <c r="E132" s="7">
         <v>396.374537190409</v>
       </c>
-      <c r="F132" s="1">
+      <c r="F132" s="8">
         <v>355</v>
       </c>
-      <c r="G132" s="1">
+      <c r="G132" s="7">
         <v>492.30672916554698</v>
       </c>
-      <c r="H132" s="1">
+      <c r="H132" s="7">
         <v>1790.14255605985</v>
       </c>
       <c r="I132" s="1">
@@ -4775,16 +4788,16 @@
       <c r="D133" t="s">
         <v>1</v>
       </c>
-      <c r="E133" s="1">
+      <c r="E133" s="7">
         <v>204.38660593643101</v>
       </c>
-      <c r="F133" s="1">
+      <c r="F133" s="8">
         <v>201</v>
       </c>
-      <c r="G133" s="1">
+      <c r="G133" s="7">
         <v>481.65387082604002</v>
       </c>
-      <c r="H133" s="1">
+      <c r="H133" s="7">
         <v>1299.4663740687799</v>
       </c>
       <c r="I133" s="1">
@@ -4804,16 +4817,16 @@
       <c r="D134" t="s">
         <v>1</v>
       </c>
-      <c r="E134" s="1" t="s">
+      <c r="E134" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F134" s="1">
+      <c r="F134" s="8">
         <v>303</v>
       </c>
-      <c r="G134" s="1">
+      <c r="G134" s="7">
         <v>578.19173056187901</v>
       </c>
-      <c r="H134" s="1">
+      <c r="H134" s="7">
         <v>1166.4924939694499</v>
       </c>
       <c r="I134" s="1">
@@ -4833,16 +4846,16 @@
       <c r="D135" t="s">
         <v>1</v>
       </c>
-      <c r="E135" s="1">
+      <c r="E135" s="7">
         <v>328.22361414814998</v>
       </c>
-      <c r="F135" s="1">
+      <c r="F135" s="8">
         <v>285</v>
       </c>
-      <c r="G135" s="1">
+      <c r="G135" s="7">
         <v>805.28641578961594</v>
       </c>
-      <c r="H135" s="1">
+      <c r="H135" s="7">
         <v>1285.2335540420099</v>
       </c>
       <c r="I135" s="1">
@@ -4862,16 +4875,16 @@
       <c r="D136" t="s">
         <v>1</v>
       </c>
-      <c r="E136" s="1">
+      <c r="E136" s="7">
         <v>251.08345395220201</v>
       </c>
-      <c r="F136" s="1">
+      <c r="F136" s="8">
         <v>255</v>
       </c>
-      <c r="G136" s="1">
+      <c r="G136" s="7">
         <v>895.95820647211497</v>
       </c>
-      <c r="H136" s="1">
+      <c r="H136" s="7">
         <v>1446.7332572872799</v>
       </c>
       <c r="I136" s="1">
@@ -4891,16 +4904,16 @@
       <c r="D137" t="s">
         <v>1</v>
       </c>
-      <c r="E137" s="1">
+      <c r="E137" s="7">
         <v>223.87902852371801</v>
       </c>
-      <c r="F137" s="1">
+      <c r="F137" s="8">
         <v>220</v>
       </c>
-      <c r="G137" s="1">
+      <c r="G137" s="7">
         <v>894.22542829255895</v>
       </c>
-      <c r="H137" s="1">
+      <c r="H137" s="7">
         <v>1797.5068213088</v>
       </c>
       <c r="I137" s="1">
@@ -4920,16 +4933,16 @@
       <c r="D138" t="s">
         <v>1</v>
       </c>
-      <c r="E138" s="1">
+      <c r="E138" s="7">
         <v>217.65062311503701</v>
       </c>
-      <c r="F138" s="1">
+      <c r="F138" s="8">
         <v>263</v>
       </c>
-      <c r="G138" s="1">
+      <c r="G138" s="7">
         <v>760.56522078295802</v>
       </c>
-      <c r="H138" s="1">
+      <c r="H138" s="7">
         <v>2690.91677121872</v>
       </c>
       <c r="I138" s="1">
@@ -4949,16 +4962,16 @@
       <c r="D139" t="s">
         <v>1</v>
       </c>
-      <c r="E139" s="1">
+      <c r="E139" s="7">
         <v>356.69771049307599</v>
       </c>
-      <c r="F139" s="1">
+      <c r="F139" s="8">
         <v>345</v>
       </c>
-      <c r="G139" s="1">
+      <c r="G139" s="7">
         <v>688.48850318788402</v>
       </c>
-      <c r="H139" s="1">
+      <c r="H139" s="7">
         <v>1622.5600622607601</v>
       </c>
       <c r="I139" s="1">
@@ -4978,16 +4991,16 @@
       <c r="D140" t="s">
         <v>1</v>
       </c>
-      <c r="E140" s="1" t="s">
+      <c r="E140" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F140" s="1">
+      <c r="F140" s="8">
         <v>300</v>
       </c>
-      <c r="G140" s="1">
+      <c r="G140" s="7">
         <v>618.93923943006905</v>
       </c>
-      <c r="H140" s="1">
+      <c r="H140" s="7">
         <v>1944.2671613718701</v>
       </c>
       <c r="I140" s="1">
@@ -5007,16 +5020,16 @@
       <c r="D141" t="s">
         <v>1</v>
       </c>
-      <c r="E141" s="1" t="s">
+      <c r="E141" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F141" s="1">
+      <c r="F141" s="8">
         <v>168</v>
       </c>
-      <c r="G141" s="1">
+      <c r="G141" s="7">
         <v>736.04854983984001</v>
       </c>
-      <c r="H141" s="1">
+      <c r="H141" s="7">
         <v>1559.8648522927199</v>
       </c>
       <c r="I141" s="1">
@@ -5036,16 +5049,16 @@
       <c r="D142" t="s">
         <v>1</v>
       </c>
-      <c r="E142" s="1" t="s">
+      <c r="E142" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F142" s="1">
+      <c r="F142" s="8">
         <v>243</v>
       </c>
-      <c r="G142" s="1">
+      <c r="G142" s="7">
         <v>847.475639140216</v>
       </c>
-      <c r="H142" s="1">
+      <c r="H142" s="7">
         <v>1915.6926453368701</v>
       </c>
       <c r="I142" s="1">
@@ -5065,16 +5078,16 @@
       <c r="D143" t="s">
         <v>1</v>
       </c>
-      <c r="E143" s="1">
+      <c r="E143" s="7">
         <v>251.42758285564801</v>
       </c>
-      <c r="F143" s="1">
+      <c r="F143" s="8">
         <v>257</v>
       </c>
-      <c r="G143" s="1">
+      <c r="G143" s="7">
         <v>956.24532993447701</v>
       </c>
-      <c r="H143" s="1">
+      <c r="H143" s="7">
         <v>1815.15726407951</v>
       </c>
       <c r="I143" s="1">
@@ -5094,16 +5107,16 @@
       <c r="D144" t="s">
         <v>1</v>
       </c>
-      <c r="E144" s="1">
+      <c r="E144" s="7">
         <v>233.24195932230199</v>
       </c>
-      <c r="F144" s="1">
+      <c r="F144" s="8">
         <v>240</v>
       </c>
-      <c r="G144" s="1">
+      <c r="G144" s="7">
         <v>1044.83373846832</v>
       </c>
-      <c r="H144" s="1">
+      <c r="H144" s="7">
         <v>1404.08097851817</v>
       </c>
       <c r="I144" s="1">
@@ -5123,16 +5136,16 @@
       <c r="D145" t="s">
         <v>1</v>
       </c>
-      <c r="E145" s="1" t="s">
+      <c r="E145" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F145" s="1">
+      <c r="F145" s="8">
         <v>295</v>
       </c>
-      <c r="G145" s="1">
+      <c r="G145" s="7">
         <v>955.175449362324</v>
       </c>
-      <c r="H145" s="1">
+      <c r="H145" s="7">
         <v>2226.8920567376599</v>
       </c>
       <c r="I145" s="1">
@@ -5152,16 +5165,16 @@
       <c r="D146" t="s">
         <v>1</v>
       </c>
-      <c r="E146" s="1">
+      <c r="E146" s="7">
         <v>206.37269844334301</v>
       </c>
-      <c r="F146" s="1">
+      <c r="F146" s="8">
         <v>202</v>
       </c>
-      <c r="G146" s="1">
+      <c r="G146" s="7">
         <v>894.14075565091298</v>
       </c>
-      <c r="H146" s="1">
+      <c r="H146" s="7">
         <v>1308.3914718833</v>
       </c>
       <c r="I146" s="1">
@@ -5181,16 +5194,16 @@
       <c r="D147" t="s">
         <v>1</v>
       </c>
-      <c r="E147" s="1">
+      <c r="E147" s="7">
         <v>200.83948537933799</v>
       </c>
-      <c r="F147" s="1">
+      <c r="F147" s="8">
         <v>315</v>
       </c>
-      <c r="G147" s="1">
+      <c r="G147" s="7">
         <v>800.19477905000804</v>
       </c>
-      <c r="H147" s="1">
+      <c r="H147" s="7">
         <v>1283.1925253066499</v>
       </c>
       <c r="I147" s="1">
@@ -5210,16 +5223,16 @@
       <c r="D148" t="s">
         <v>1</v>
       </c>
-      <c r="E148" s="1">
+      <c r="E148" s="7">
         <v>389.11016137083197</v>
       </c>
-      <c r="F148" s="1">
+      <c r="F148" s="8">
         <v>329</v>
       </c>
-      <c r="G148" s="1">
+      <c r="G148" s="7">
         <v>992.76912156553396</v>
       </c>
-      <c r="H148" s="1">
+      <c r="H148" s="7">
         <v>1159.44730038027</v>
       </c>
       <c r="I148" s="1">
@@ -5239,16 +5252,16 @@
       <c r="D149" t="s">
         <v>1</v>
       </c>
-      <c r="E149" s="1">
+      <c r="E149" s="7">
         <v>251.13607583611801</v>
       </c>
-      <c r="F149" s="1">
+      <c r="F149" s="8">
         <v>263</v>
       </c>
-      <c r="G149" s="1">
+      <c r="G149" s="7">
         <v>548.21734446976495</v>
       </c>
-      <c r="H149" s="1">
+      <c r="H149" s="7">
         <v>2153.0880183139998</v>
       </c>
       <c r="I149" s="1">
@@ -5268,16 +5281,16 @@
       <c r="D150" t="s">
         <v>1</v>
       </c>
-      <c r="E150" s="1">
+      <c r="E150" s="7">
         <v>153.55351415035301</v>
       </c>
-      <c r="F150" s="1">
+      <c r="F150" s="8">
         <v>153</v>
       </c>
-      <c r="G150" s="1">
+      <c r="G150" s="7">
         <v>835.32682326106396</v>
       </c>
-      <c r="H150" s="1">
+      <c r="H150" s="7">
         <v>2137.24722848287</v>
       </c>
       <c r="I150" s="1">
@@ -5297,16 +5310,16 @@
       <c r="D151" t="s">
         <v>1</v>
       </c>
-      <c r="E151" s="1">
+      <c r="E151" s="7">
         <v>211.09369535098699</v>
       </c>
-      <c r="F151" s="1">
+      <c r="F151" s="8">
         <v>281</v>
       </c>
-      <c r="G151" s="1">
+      <c r="G151" s="7">
         <v>668.32153664290001</v>
       </c>
-      <c r="H151" s="1">
+      <c r="H151" s="7">
         <v>1620.7941706685799</v>
       </c>
       <c r="I151" s="1">
@@ -5326,16 +5339,16 @@
       <c r="D152" t="s">
         <v>1</v>
       </c>
-      <c r="E152" s="1">
+      <c r="E152" s="7">
         <v>383.57961224931501</v>
       </c>
-      <c r="F152" s="1">
+      <c r="F152" s="8">
         <v>296</v>
       </c>
-      <c r="G152" s="1">
+      <c r="G152" s="7">
         <v>802.92721787566802</v>
       </c>
-      <c r="H152" s="1">
+      <c r="H152" s="7">
         <v>1584.9252416460099</v>
       </c>
       <c r="I152" s="1">
@@ -5355,16 +5368,16 @@
       <c r="D153" t="s">
         <v>1</v>
       </c>
-      <c r="E153" s="1">
+      <c r="E153" s="7">
         <v>255.10918809964201</v>
       </c>
-      <c r="F153" s="1">
+      <c r="F153" s="8">
         <v>255</v>
       </c>
-      <c r="G153" s="1">
+      <c r="G153" s="7">
         <v>985.51942002583496</v>
       </c>
-      <c r="H153" s="1">
+      <c r="H153" s="7">
         <v>2017.52533870092</v>
       </c>
       <c r="I153" s="1">
@@ -5384,16 +5397,16 @@
       <c r="D154" t="s">
         <v>1</v>
       </c>
-      <c r="E154" s="1">
+      <c r="E154" s="7">
         <v>368.45974715432499</v>
       </c>
-      <c r="F154" s="1">
+      <c r="F154" s="8">
         <v>347</v>
       </c>
-      <c r="G154" s="1">
+      <c r="G154" s="7">
         <v>486.72852847349202</v>
       </c>
-      <c r="H154" s="1">
+      <c r="H154" s="7">
         <v>1539.5764875003299</v>
       </c>
       <c r="I154" s="1">
@@ -5413,16 +5426,16 @@
       <c r="D155" t="s">
         <v>1</v>
       </c>
-      <c r="E155" s="1">
+      <c r="E155" s="7">
         <v>139.92621326550201</v>
       </c>
-      <c r="F155" s="1">
+      <c r="F155" s="8">
         <v>140</v>
       </c>
-      <c r="G155" s="1">
+      <c r="G155" s="7">
         <v>366.11385200564899</v>
       </c>
-      <c r="H155" s="1">
+      <c r="H155" s="7">
         <v>1569.0283204432201</v>
       </c>
       <c r="I155" s="1">
@@ -5442,16 +5455,16 @@
       <c r="D156" t="s">
         <v>1</v>
       </c>
-      <c r="E156" s="1">
+      <c r="E156" s="7">
         <v>363.15464373999299</v>
       </c>
-      <c r="F156" s="1">
+      <c r="F156" s="8">
         <v>346</v>
       </c>
-      <c r="G156" s="1">
+      <c r="G156" s="7">
         <v>396.32128475708902</v>
       </c>
-      <c r="H156" s="1">
+      <c r="H156" s="7">
         <v>1683.3131735500201</v>
       </c>
       <c r="I156" s="1">
@@ -5471,16 +5484,16 @@
       <c r="D157" t="s">
         <v>1</v>
       </c>
-      <c r="E157" s="1" t="s">
+      <c r="E157" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F157" s="1">
+      <c r="F157" s="8">
         <v>307</v>
       </c>
-      <c r="G157" s="1">
+      <c r="G157" s="7">
         <v>838.44182051242205</v>
       </c>
-      <c r="H157" s="1">
+      <c r="H157" s="7">
         <v>1662.5750066000301</v>
       </c>
       <c r="I157" s="1">
@@ -5500,16 +5513,16 @@
       <c r="D158" t="s">
         <v>1</v>
       </c>
-      <c r="E158" s="1">
+      <c r="E158" s="7">
         <v>218.136816377635</v>
       </c>
-      <c r="F158" s="1">
+      <c r="F158" s="8">
         <v>247</v>
       </c>
-      <c r="G158" s="1">
+      <c r="G158" s="7">
         <v>435.04094912413802</v>
       </c>
-      <c r="H158" s="1">
+      <c r="H158" s="7">
         <v>1844.9147529741499</v>
       </c>
       <c r="I158" s="1">
@@ -5529,16 +5542,16 @@
       <c r="D159" t="s">
         <v>1</v>
       </c>
-      <c r="E159" s="1">
+      <c r="E159" s="7">
         <v>216.18434175818399</v>
       </c>
-      <c r="F159" s="1">
+      <c r="F159" s="8">
         <v>186</v>
       </c>
-      <c r="G159" s="1">
+      <c r="G159" s="7">
         <v>623.89262517499299</v>
       </c>
-      <c r="H159" s="1">
+      <c r="H159" s="7">
         <v>1216.6159565466501</v>
       </c>
       <c r="I159" s="1">
@@ -5558,16 +5571,16 @@
       <c r="D160" t="s">
         <v>1</v>
       </c>
-      <c r="E160" s="1">
+      <c r="E160" s="7">
         <v>233.00573679594501</v>
       </c>
-      <c r="F160" s="1">
+      <c r="F160" s="8">
         <v>238</v>
       </c>
-      <c r="G160" s="1">
+      <c r="G160" s="7">
         <v>495.57083822584201</v>
       </c>
-      <c r="H160" s="1">
+      <c r="H160" s="7">
         <v>1385.13244687576</v>
       </c>
       <c r="I160" s="1">
@@ -5587,16 +5600,16 @@
       <c r="D161" t="s">
         <v>1</v>
       </c>
-      <c r="E161" s="1">
+      <c r="E161" s="7">
         <v>159.07002190006699</v>
       </c>
-      <c r="F161" s="1">
+      <c r="F161" s="8">
         <v>333</v>
       </c>
-      <c r="G161" s="1">
+      <c r="G161" s="7">
         <v>635.71581985291698</v>
       </c>
-      <c r="H161" s="1">
+      <c r="H161" s="7">
         <v>1039.9646186980999</v>
       </c>
       <c r="I161" s="1">
@@ -5616,16 +5629,16 @@
       <c r="D162" t="s">
         <v>1</v>
       </c>
-      <c r="E162" s="1">
+      <c r="E162" s="7">
         <v>266.34415657700902</v>
       </c>
-      <c r="F162" s="1">
+      <c r="F162" s="8">
         <v>247</v>
       </c>
-      <c r="G162" s="1">
+      <c r="G162" s="7">
         <v>537.715896846953</v>
       </c>
-      <c r="H162" s="1">
+      <c r="H162" s="7">
         <v>1277.5456459360501</v>
       </c>
       <c r="I162" s="1">
@@ -5645,16 +5658,16 @@
       <c r="D163" t="s">
         <v>1</v>
       </c>
-      <c r="E163" s="1" t="s">
+      <c r="E163" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F163" s="1">
+      <c r="F163" s="8">
         <v>254</v>
       </c>
-      <c r="G163" s="1">
+      <c r="G163" s="7">
         <v>580.27459170628902</v>
       </c>
-      <c r="H163" s="1">
+      <c r="H163" s="7">
         <v>2000.2512933273199</v>
       </c>
       <c r="I163" s="1">
@@ -5674,16 +5687,16 @@
       <c r="D164" t="s">
         <v>1</v>
       </c>
-      <c r="E164" s="1" t="s">
+      <c r="E164" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F164" s="1">
+      <c r="F164" s="8">
         <v>161</v>
       </c>
-      <c r="G164" s="1">
+      <c r="G164" s="7">
         <v>863.75955348451805</v>
       </c>
-      <c r="H164" s="1">
+      <c r="H164" s="7">
         <v>1881.5161571906499</v>
       </c>
       <c r="I164" s="1">
@@ -5703,16 +5716,16 @@
       <c r="D165" t="s">
         <v>1</v>
       </c>
-      <c r="E165" s="1">
+      <c r="E165" s="7">
         <v>331.195795921838</v>
       </c>
-      <c r="F165" s="1">
+      <c r="F165" s="8">
         <v>324</v>
       </c>
-      <c r="G165" s="1">
+      <c r="G165" s="7">
         <v>663.57186138469103</v>
       </c>
-      <c r="H165" s="1">
+      <c r="H165" s="7">
         <v>1853.5973477549001</v>
       </c>
       <c r="I165" s="1">
@@ -5732,16 +5745,16 @@
       <c r="D166" t="s">
         <v>1</v>
       </c>
-      <c r="E166" s="1" t="s">
+      <c r="E166" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F166" s="1">
+      <c r="F166" s="8">
         <v>300</v>
       </c>
-      <c r="G166" s="1">
+      <c r="G166" s="7">
         <v>927.196942727649</v>
       </c>
-      <c r="H166" s="1">
+      <c r="H166" s="7">
         <v>2210.0567334467901</v>
       </c>
       <c r="I166" s="1">
@@ -5761,16 +5774,16 @@
       <c r="D167" t="s">
         <v>1</v>
       </c>
-      <c r="E167" s="1">
+      <c r="E167" s="7">
         <v>336.86754455563499</v>
       </c>
-      <c r="F167" s="1">
+      <c r="F167" s="8">
         <v>330</v>
       </c>
-      <c r="G167" s="1">
+      <c r="G167" s="7">
         <v>615.14478360911801</v>
       </c>
-      <c r="H167" s="1">
+      <c r="H167" s="7">
         <v>1390.7740086098499</v>
       </c>
       <c r="I167" s="1">
@@ -5790,16 +5803,16 @@
       <c r="D168" t="s">
         <v>1</v>
       </c>
-      <c r="E168" s="1">
+      <c r="E168" s="7">
         <v>388.66800907120103</v>
       </c>
-      <c r="F168" s="1">
+      <c r="F168" s="8">
         <v>278</v>
       </c>
-      <c r="G168" s="1">
+      <c r="G168" s="7">
         <v>401.19888246310302</v>
       </c>
-      <c r="H168" s="1">
+      <c r="H168" s="7">
         <v>1556.25096116849</v>
       </c>
       <c r="I168" s="1">
@@ -5819,16 +5832,16 @@
       <c r="D169" t="s">
         <v>1</v>
       </c>
-      <c r="E169" s="1">
+      <c r="E169" s="7">
         <v>211.64495038967999</v>
       </c>
-      <c r="F169" s="1">
+      <c r="F169" s="8">
         <v>252</v>
       </c>
-      <c r="G169" s="1">
+      <c r="G169" s="7">
         <v>852.71013857503397</v>
       </c>
-      <c r="H169" s="1">
+      <c r="H169" s="7">
         <v>1679.1597562074201</v>
       </c>
       <c r="I169" s="1">
@@ -5848,16 +5861,16 @@
       <c r="D170" t="s">
         <v>1</v>
       </c>
-      <c r="E170" s="1">
+      <c r="E170" s="7">
         <v>217.29114979494699</v>
       </c>
-      <c r="F170" s="1">
+      <c r="F170" s="8">
         <v>223</v>
       </c>
-      <c r="G170" s="1">
+      <c r="G170" s="7">
         <v>573.131157102462</v>
       </c>
-      <c r="H170" s="1">
+      <c r="H170" s="7">
         <v>1534.7607595781799</v>
       </c>
       <c r="I170" s="1">
@@ -5877,16 +5890,16 @@
       <c r="D171" t="s">
         <v>1</v>
       </c>
-      <c r="E171" s="1">
+      <c r="E171" s="7">
         <v>229.56875831459899</v>
       </c>
-      <c r="F171" s="1">
+      <c r="F171" s="8">
         <v>218</v>
       </c>
-      <c r="G171" s="1">
+      <c r="G171" s="7">
         <v>580.67986610914795</v>
       </c>
-      <c r="H171" s="1">
+      <c r="H171" s="7">
         <v>1106.44169763998</v>
       </c>
       <c r="I171" s="1">
@@ -5906,16 +5919,16 @@
       <c r="D172" t="s">
         <v>1</v>
       </c>
-      <c r="E172" s="1">
+      <c r="E172" s="7">
         <v>301.93879096959</v>
       </c>
-      <c r="F172" s="1">
+      <c r="F172" s="8">
         <v>318</v>
       </c>
-      <c r="G172" s="1">
+      <c r="G172" s="7">
         <v>1115.5075330219399</v>
       </c>
-      <c r="H172" s="1">
+      <c r="H172" s="7">
         <v>1840.13490382654</v>
       </c>
       <c r="I172" s="1">
@@ -5935,16 +5948,16 @@
       <c r="D173" t="s">
         <v>1</v>
       </c>
-      <c r="E173" s="1">
+      <c r="E173" s="7">
         <v>203.05249925455601</v>
       </c>
-      <c r="F173" s="1">
+      <c r="F173" s="8">
         <v>201</v>
       </c>
-      <c r="G173" s="1">
+      <c r="G173" s="7">
         <v>791.02623232576002</v>
       </c>
-      <c r="H173" s="1">
+      <c r="H173" s="7">
         <v>1201.58548581068</v>
       </c>
       <c r="I173" s="1">
@@ -5964,16 +5977,16 @@
       <c r="D174" t="s">
         <v>1</v>
       </c>
-      <c r="E174" s="1">
+      <c r="E174" s="7">
         <v>372.18994771905301</v>
       </c>
-      <c r="F174" s="1">
+      <c r="F174" s="8">
         <v>358</v>
       </c>
-      <c r="G174" s="1">
+      <c r="G174" s="7">
         <v>737.34479906217803</v>
       </c>
-      <c r="H174" s="1">
+      <c r="H174" s="7">
         <v>905.08354598748497</v>
       </c>
       <c r="I174" s="1">
@@ -5993,16 +6006,16 @@
       <c r="D175" t="s">
         <v>1</v>
       </c>
-      <c r="E175" s="1">
+      <c r="E175" s="7">
         <v>298.288659989542</v>
       </c>
-      <c r="F175" s="1">
+      <c r="F175" s="8">
         <v>284</v>
       </c>
-      <c r="G175" s="1">
+      <c r="G175" s="7">
         <v>894.04392179214199</v>
       </c>
-      <c r="H175" s="1">
+      <c r="H175" s="7">
         <v>1790.7252217417599</v>
       </c>
       <c r="I175" s="1">
@@ -6022,16 +6035,16 @@
       <c r="D176" t="s">
         <v>1</v>
       </c>
-      <c r="E176" s="1">
+      <c r="E176" s="7">
         <v>343.65405038165301</v>
       </c>
-      <c r="F176" s="1">
+      <c r="F176" s="8">
         <v>353</v>
       </c>
-      <c r="G176" s="1">
+      <c r="G176" s="7">
         <v>682.78661385617897</v>
       </c>
-      <c r="H176" s="1">
+      <c r="H176" s="7">
         <v>1153.8138438961901</v>
       </c>
       <c r="I176" s="1">
@@ -6051,16 +6064,16 @@
       <c r="D177" t="s">
         <v>1</v>
       </c>
-      <c r="E177" s="1">
+      <c r="E177" s="7">
         <v>242.40650871900999</v>
       </c>
-      <c r="F177" s="1">
+      <c r="F177" s="8">
         <v>241</v>
       </c>
-      <c r="G177" s="1">
+      <c r="G177" s="7">
         <v>483.04637476579398</v>
       </c>
-      <c r="H177" s="1">
+      <c r="H177" s="7">
         <v>1846.7471902662201</v>
       </c>
       <c r="I177" s="1">
@@ -6080,16 +6093,16 @@
       <c r="D178" t="s">
         <v>1</v>
       </c>
-      <c r="E178" s="1">
+      <c r="E178" s="7">
         <v>293.56653030354602</v>
       </c>
-      <c r="F178" s="1">
+      <c r="F178" s="8">
         <v>302</v>
       </c>
-      <c r="G178" s="1">
+      <c r="G178" s="7">
         <v>591.97122798294401</v>
       </c>
-      <c r="H178" s="1">
+      <c r="H178" s="7">
         <v>1495.79003471696</v>
       </c>
       <c r="I178" s="1">
@@ -6109,16 +6122,16 @@
       <c r="D179" t="s">
         <v>1</v>
       </c>
-      <c r="E179" s="1" t="s">
+      <c r="E179" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F179" s="1">
+      <c r="F179" s="8">
         <v>202</v>
       </c>
-      <c r="G179" s="1">
+      <c r="G179" s="7">
         <v>960.06917542802205</v>
       </c>
-      <c r="H179" s="1">
+      <c r="H179" s="7">
         <v>1427.8186170848801</v>
       </c>
       <c r="I179" s="1">
@@ -6138,16 +6151,16 @@
       <c r="D180" t="s">
         <v>1</v>
       </c>
-      <c r="E180" s="1">
+      <c r="E180" s="7">
         <v>357.339617297941</v>
       </c>
-      <c r="F180" s="1">
+      <c r="F180" s="8">
         <v>357</v>
       </c>
-      <c r="G180" s="1">
+      <c r="G180" s="7">
         <v>703.88992510637001</v>
       </c>
-      <c r="H180" s="1">
+      <c r="H180" s="7">
         <v>2234.8242479342298</v>
       </c>
       <c r="I180" s="1">
@@ -6167,16 +6180,16 @@
       <c r="D181" t="s">
         <v>1</v>
       </c>
-      <c r="E181" s="1" t="s">
+      <c r="E181" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F181" s="1">
+      <c r="F181" s="8">
         <v>331</v>
       </c>
-      <c r="G181" s="1">
+      <c r="G181" s="7">
         <v>844.19003956777703</v>
       </c>
-      <c r="H181" s="1">
+      <c r="H181" s="7">
         <v>1818.02186594675</v>
       </c>
       <c r="I181" s="1">
@@ -6196,16 +6209,16 @@
       <c r="D182" t="s">
         <v>1</v>
       </c>
-      <c r="E182" s="1">
+      <c r="E182" s="7">
         <v>369.10423930475503</v>
       </c>
-      <c r="F182" s="1">
+      <c r="F182" s="8">
         <v>286</v>
       </c>
-      <c r="G182" s="1">
+      <c r="G182" s="7">
         <v>732.21097371629401</v>
       </c>
-      <c r="H182" s="1">
+      <c r="H182" s="7">
         <v>1086.55164663766</v>
       </c>
       <c r="I182" s="1">
@@ -6225,16 +6238,16 @@
       <c r="D183" t="s">
         <v>1</v>
       </c>
-      <c r="E183" s="1">
+      <c r="E183" s="7">
         <v>229.05180356104199</v>
       </c>
-      <c r="F183" s="1">
+      <c r="F183" s="8">
         <v>240</v>
       </c>
-      <c r="G183" s="1">
+      <c r="G183" s="7">
         <v>504.512202571373</v>
       </c>
-      <c r="H183" s="1">
+      <c r="H183" s="7">
         <v>1456.85687672878</v>
       </c>
       <c r="I183" s="1">
@@ -6254,16 +6267,16 @@
       <c r="D184" t="s">
         <v>1</v>
       </c>
-      <c r="E184" s="1" t="s">
+      <c r="E184" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F184" s="1">
+      <c r="F184" s="8">
         <v>242</v>
       </c>
-      <c r="G184" s="1">
+      <c r="G184" s="7">
         <v>743.53182207686496</v>
       </c>
-      <c r="H184" s="1">
+      <c r="H184" s="7">
         <v>2411.5119823949299</v>
       </c>
       <c r="I184" s="1">
@@ -6283,16 +6296,16 @@
       <c r="D185" t="s">
         <v>1</v>
       </c>
-      <c r="E185" s="1">
+      <c r="E185" s="7">
         <v>313.23650843613098</v>
       </c>
-      <c r="F185" s="1">
+      <c r="F185" s="8">
         <v>281</v>
       </c>
-      <c r="G185" s="1">
+      <c r="G185" s="7">
         <v>336.16878824960202</v>
       </c>
-      <c r="H185" s="1">
+      <c r="H185" s="7">
         <v>1856.8136608499799</v>
       </c>
       <c r="I185" s="1">
@@ -6312,16 +6325,16 @@
       <c r="D186" t="s">
         <v>1</v>
       </c>
-      <c r="E186" s="1" t="s">
+      <c r="E186" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F186" s="1">
+      <c r="F186" s="8">
         <v>300</v>
       </c>
-      <c r="G186" s="1">
+      <c r="G186" s="7">
         <v>713.385275584022</v>
       </c>
-      <c r="H186" s="1">
+      <c r="H186" s="7">
         <v>2153.8170205177198</v>
       </c>
       <c r="I186" s="1">
@@ -6341,16 +6354,16 @@
       <c r="D187" t="s">
         <v>1</v>
       </c>
-      <c r="E187" s="1">
+      <c r="E187" s="7">
         <v>321.75593310056502</v>
       </c>
-      <c r="F187" s="1">
+      <c r="F187" s="8">
         <v>331</v>
       </c>
-      <c r="G187" s="1">
+      <c r="G187" s="7">
         <v>328.91520621229103</v>
       </c>
-      <c r="H187" s="1">
+      <c r="H187" s="7">
         <v>1809.59945745594</v>
       </c>
       <c r="I187" s="1">
@@ -6370,16 +6383,16 @@
       <c r="D188" t="s">
         <v>1</v>
       </c>
-      <c r="E188" s="1">
+      <c r="E188" s="7">
         <v>323.38109446995497</v>
       </c>
-      <c r="F188" s="1">
+      <c r="F188" s="8">
         <v>320</v>
       </c>
-      <c r="G188" s="1">
+      <c r="G188" s="7">
         <v>1281.55737324391</v>
       </c>
-      <c r="H188" s="1">
+      <c r="H188" s="7">
         <v>1965.9190308698601</v>
       </c>
       <c r="I188" s="1">
@@ -6399,16 +6412,16 @@
       <c r="D189" t="s">
         <v>1</v>
       </c>
-      <c r="E189" s="1">
+      <c r="E189" s="7">
         <v>341.83623307309102</v>
       </c>
-      <c r="F189" s="1">
+      <c r="F189" s="8">
         <v>336</v>
       </c>
-      <c r="G189" s="1">
+      <c r="G189" s="7">
         <v>585.81181909018301</v>
       </c>
-      <c r="H189" s="1">
+      <c r="H189" s="7">
         <v>1256.8902420311799</v>
       </c>
       <c r="I189" s="1">
@@ -6428,16 +6441,16 @@
       <c r="D190" t="s">
         <v>1</v>
       </c>
-      <c r="E190" s="1" t="s">
+      <c r="E190" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F190" s="1">
+      <c r="F190" s="8">
         <v>287</v>
       </c>
-      <c r="G190" s="1">
+      <c r="G190" s="7">
         <v>557.08381375537897</v>
       </c>
-      <c r="H190" s="1">
+      <c r="H190" s="7">
         <v>1226.6774930091401</v>
       </c>
       <c r="I190" s="1">
@@ -6457,16 +6470,16 @@
       <c r="D191" t="s">
         <v>1</v>
       </c>
-      <c r="E191" s="1">
+      <c r="E191" s="7">
         <v>235.53253065462499</v>
       </c>
-      <c r="F191" s="1">
+      <c r="F191" s="8">
         <v>225</v>
       </c>
-      <c r="G191" s="1">
+      <c r="G191" s="7">
         <v>495.897288331997</v>
       </c>
-      <c r="H191" s="1">
+      <c r="H191" s="7">
         <v>1523.5105068343801</v>
       </c>
       <c r="I191" s="1">
@@ -6486,16 +6499,16 @@
       <c r="D192" t="s">
         <v>1</v>
       </c>
-      <c r="E192" s="1">
+      <c r="E192" s="7">
         <v>303.299879975485</v>
       </c>
-      <c r="F192" s="1">
+      <c r="F192" s="8">
         <v>263</v>
       </c>
-      <c r="G192" s="1">
+      <c r="G192" s="7">
         <v>369.96318971674401</v>
       </c>
-      <c r="H192" s="1">
+      <c r="H192" s="7">
         <v>1007.90461808686</v>
       </c>
       <c r="I192" s="1">
@@ -6515,16 +6528,16 @@
       <c r="D193" t="s">
         <v>1</v>
       </c>
-      <c r="E193" s="1">
+      <c r="E193" s="7">
         <v>255.286051902986</v>
       </c>
-      <c r="F193" s="1">
+      <c r="F193" s="8">
         <v>294</v>
       </c>
-      <c r="G193" s="1">
+      <c r="G193" s="7">
         <v>680.05661318785599</v>
       </c>
-      <c r="H193" s="1">
+      <c r="H193" s="7">
         <v>1517.0210006668899</v>
       </c>
       <c r="I193" s="1">
@@ -6544,16 +6557,16 @@
       <c r="D194" t="s">
         <v>1</v>
       </c>
-      <c r="E194" s="1">
+      <c r="E194" s="7">
         <v>269.46449818565799</v>
       </c>
-      <c r="F194" s="1">
+      <c r="F194" s="8">
         <v>267</v>
       </c>
-      <c r="G194" s="1">
+      <c r="G194" s="7">
         <v>679.45813785827897</v>
       </c>
-      <c r="H194" s="1">
+      <c r="H194" s="7">
         <v>1524.3683447813501</v>
       </c>
       <c r="I194" s="1">
@@ -6573,16 +6586,16 @@
       <c r="D195" t="s">
         <v>1</v>
       </c>
-      <c r="E195" s="1">
+      <c r="E195" s="7">
         <v>209.26047322630501</v>
       </c>
-      <c r="F195" s="1">
+      <c r="F195" s="8">
         <v>200</v>
       </c>
-      <c r="G195" s="1">
+      <c r="G195" s="7">
         <v>827.33563796005399</v>
       </c>
-      <c r="H195" s="1">
+      <c r="H195" s="7">
         <v>2577.59079050543</v>
       </c>
       <c r="I195" s="1">
@@ -6602,16 +6615,16 @@
       <c r="D196" t="s">
         <v>1</v>
       </c>
-      <c r="E196" s="1">
+      <c r="E196" s="7">
         <v>340.12105498763799</v>
       </c>
-      <c r="F196" s="1">
+      <c r="F196" s="8">
         <v>296</v>
       </c>
-      <c r="G196" s="1">
+      <c r="G196" s="7">
         <v>696.20285673801095</v>
       </c>
-      <c r="H196" s="1">
+      <c r="H196" s="7">
         <v>2030.5448679922299</v>
       </c>
       <c r="I196" s="1">
@@ -6631,16 +6644,16 @@
       <c r="D197" t="s">
         <v>1</v>
       </c>
-      <c r="E197" s="1">
+      <c r="E197" s="7">
         <v>384.05810051076497</v>
       </c>
-      <c r="F197" s="1">
+      <c r="F197" s="8">
         <v>374</v>
       </c>
-      <c r="G197" s="1">
+      <c r="G197" s="7">
         <v>1149.7059732406999</v>
       </c>
-      <c r="H197" s="1">
+      <c r="H197" s="7">
         <v>1644.0955081412901</v>
       </c>
       <c r="I197" s="1">
@@ -6660,16 +6673,16 @@
       <c r="D198" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E198" s="6" t="s">
+      <c r="E198" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F198" s="4" t="s">
+      <c r="F198" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G198" s="6">
+      <c r="G198" s="7">
         <v>827.74127079530604</v>
       </c>
-      <c r="H198" s="6">
+      <c r="H198" s="7">
         <v>1796.77494548513</v>
       </c>
       <c r="I198" s="6">
@@ -6689,16 +6702,16 @@
       <c r="D199" t="s">
         <v>1</v>
       </c>
-      <c r="E199" s="1">
+      <c r="E199" s="7">
         <v>218.12694815133199</v>
       </c>
-      <c r="F199" s="1">
+      <c r="F199" s="8">
         <v>213</v>
       </c>
-      <c r="G199" s="1">
+      <c r="G199" s="7">
         <v>869.61986276860205</v>
       </c>
-      <c r="H199" s="1">
+      <c r="H199" s="7">
         <v>1494.0590433482</v>
       </c>
       <c r="I199" s="1">
@@ -6718,16 +6731,16 @@
       <c r="D200" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E200" s="6" t="s">
+      <c r="E200" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F200" s="4" t="s">
+      <c r="F200" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G200" s="6">
+      <c r="G200" s="7">
         <v>1018.2153302976</v>
       </c>
-      <c r="H200" s="6">
+      <c r="H200" s="7">
         <v>2515.71040258925</v>
       </c>
       <c r="I200" s="6">
@@ -6747,16 +6760,16 @@
       <c r="D201" t="s">
         <v>1</v>
       </c>
-      <c r="E201" s="1" t="s">
+      <c r="E201" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F201" s="1">
+      <c r="F201" s="8">
         <v>218</v>
       </c>
-      <c r="G201" s="1">
+      <c r="G201" s="7">
         <v>1190.2389934001301</v>
       </c>
-      <c r="H201" s="1">
+      <c r="H201" s="7">
         <v>1555.5910141654599</v>
       </c>
       <c r="I201" s="1">
@@ -6776,16 +6789,16 @@
       <c r="D202" t="s">
         <v>1</v>
       </c>
-      <c r="E202" s="1" t="s">
+      <c r="E202" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F202" s="1">
+      <c r="F202" s="8">
         <v>372</v>
       </c>
-      <c r="G202" s="1">
+      <c r="G202" s="7">
         <v>945.55482376431701</v>
       </c>
-      <c r="H202" s="1">
+      <c r="H202" s="7">
         <v>2077.4398765445599</v>
       </c>
       <c r="I202" s="1">
@@ -6805,16 +6818,16 @@
       <c r="D203" t="s">
         <v>1</v>
       </c>
-      <c r="E203" s="1" t="s">
+      <c r="E203" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F203" s="1">
+      <c r="F203" s="8">
         <v>325</v>
       </c>
-      <c r="G203" s="1">
+      <c r="G203" s="7">
         <v>766.43645799007402</v>
       </c>
-      <c r="H203" s="1">
+      <c r="H203" s="7">
         <v>1605.5263750793099</v>
       </c>
       <c r="I203" s="1">
